--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>664631.3120007862</v>
+        <v>663117.5761923016</v>
       </c>
     </row>
     <row r="7">
@@ -661,13 +661,13 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>113.0318619672408</v>
       </c>
       <c r="D2" t="n">
-        <v>178.2355525288853</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>62.20275288770045</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -867,25 +867,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>114.3378749226332</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>333.3407674996176</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>50.77901812020955</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1062,19 +1062,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>16.66918694452585</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>217.4687263638456</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>161.6244837620032</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>108.082644441457</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>51.58543740429392</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>11.25067680791305</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>399.1733277995402</v>
       </c>
       <c r="Y11" t="n">
-        <v>322.0563862796589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1545,7 +1545,7 @@
         <v>164.3233324144024</v>
       </c>
       <c r="H13" t="n">
-        <v>139.9482684684449</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>90.6191407410335</v>
@@ -1578,16 +1578,16 @@
         <v>34.38004243927617</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>163.7097281125284</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.7477563934074</v>
       </c>
       <c r="U13" t="n">
-        <v>122.6111479506671</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>137.9962846312267</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>11.25067680791305</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>89.55316449769138</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.0709976747202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>127.2525798846549</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>322.0563862796589</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1776,10 +1776,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.3233324144024</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>139.9482684684449</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>163.7097281125284</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.7477563934074</v>
       </c>
       <c r="U16" t="n">
-        <v>156.9911903899433</v>
+        <v>277.3678185095547</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>82.73625606125168</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1849,7 +1849,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>419.059694606852</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1864,7 +1864,7 @@
         <v>288.7009206516237</v>
       </c>
       <c r="I17" t="n">
-        <v>11.25067680791306</v>
+        <v>11.25067680791305</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026586</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2013,13 +2013,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>23.98114967601803</v>
       </c>
       <c r="G19" t="n">
         <v>164.3233324144024</v>
       </c>
       <c r="H19" t="n">
-        <v>139.9482684684449</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>90.6191407410335</v>
@@ -2052,25 +2052,25 @@
         <v>34.38004243927617</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>163.7097281125284</v>
       </c>
       <c r="T19" t="n">
         <v>239.7477563934074</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3678185095547</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>106.942732184414</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>399.6913730837404</v>
       </c>
       <c r="H20" t="n">
-        <v>288.7009206516237</v>
+        <v>288.7009206516258</v>
       </c>
       <c r="I20" t="n">
-        <v>11.25067680791306</v>
+        <v>11.25067680791305</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>89.55316449769316</v>
+        <v>89.55316449769138</v>
       </c>
       <c r="T20" t="n">
         <v>216.0709976747202</v>
@@ -2244,7 +2244,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>32.12662984095605</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2256,10 +2256,10 @@
         <v>164.3233324144024</v>
       </c>
       <c r="H22" t="n">
-        <v>139.9482684684449</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>90.6191407410335</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.7477563934074</v>
       </c>
       <c r="U22" t="n">
-        <v>156.9911903899429</v>
+        <v>277.3678185095547</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2338,7 +2338,7 @@
         <v>288.7009206516237</v>
       </c>
       <c r="I23" t="n">
-        <v>11.25067680791306</v>
+        <v>11.25067680791305</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>83.81371252117651</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>28.77787109256647</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>164.3233324144024</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>139.9482684684449</v>
       </c>
       <c r="I25" t="n">
-        <v>90.6191407410335</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924958</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>399.6913730837404</v>
@@ -2575,7 +2575,7 @@
         <v>288.7009206516237</v>
       </c>
       <c r="I26" t="n">
-        <v>11.25067680791306</v>
+        <v>11.25067680791305</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>22.95804702378368</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.3233324144024</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>139.9482684684449</v>
       </c>
       <c r="I28" t="n">
-        <v>90.6191407410335</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>126.2333743764886</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>288.7009206516237</v>
       </c>
       <c r="I29" t="n">
-        <v>11.25067680791306</v>
+        <v>11.25067680791305</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>89.55316449769138</v>
       </c>
       <c r="T29" t="n">
-        <v>216.0709976747202</v>
+        <v>216.0709976747218</v>
       </c>
       <c r="U29" t="n">
         <v>255.7230164133354</v>
@@ -2955,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>163.7097281125284</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>156.9911903899429</v>
+        <v>277.3678185095547</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>117.7355065010095</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3049,7 +3049,7 @@
         <v>288.7009206516237</v>
       </c>
       <c r="I32" t="n">
-        <v>11.25067680791306</v>
+        <v>11.25067680791305</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>52.60573733552448</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>126.5327203831656</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3207,7 +3207,7 @@
         <v>139.9482684684449</v>
       </c>
       <c r="I34" t="n">
-        <v>90.6191407410335</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>288.7009206516237</v>
       </c>
       <c r="I35" t="n">
-        <v>11.25067680791306</v>
+        <v>11.25067680791305</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>145.7847202379821</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>6.819743042242144</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.3233324144024</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>34.38004243927617</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>163.7097281125284</v>
@@ -3480,7 +3480,7 @@
         <v>239.7477563934074</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3678185095547</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3523,7 +3523,7 @@
         <v>288.7009206516237</v>
       </c>
       <c r="I38" t="n">
-        <v>11.25067680791306</v>
+        <v>11.25067680791305</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>1.222710347731945</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.3233324144024</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.9482684684449</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>90.6191407410335</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>277.3678185095547</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>125.3645790305551</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3745,22 +3745,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>15.99054199140182</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>399.6913730837404</v>
       </c>
       <c r="H41" t="n">
-        <v>288.7009206516237</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>11.25067680791306</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>89.55316449769138</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.0709976747202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>210.5458223267251</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3808,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3903,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>136.2485009033377</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.3233324144024</v>
@@ -3918,7 +3918,7 @@
         <v>139.9482684684449</v>
       </c>
       <c r="I43" t="n">
-        <v>7.862574737568663</v>
+        <v>90.6191407410335</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>239.7477563934074</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3678185095547</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>82.23424252683444</v>
       </c>
       <c r="H44" t="n">
         <v>288.7009206516237</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>89.55316449769138</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.0709976747202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7230164133354</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>376.333757412004</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4137,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>4.180015772336331</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>144.8177332487139</v>
       </c>
       <c r="G46" t="n">
         <v>164.3233324144024</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>139.9482684684449</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>90.6191407410335</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>34.38004243927617</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>163.7097281125284</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.7477563934074</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.771922011108</v>
+        <v>1029.323819803441</v>
       </c>
       <c r="C2" t="n">
-        <v>1514.871192024409</v>
+        <v>915.1502218567329</v>
       </c>
       <c r="D2" t="n">
-        <v>1334.83528037907</v>
+        <v>895.8980050821372</v>
       </c>
       <c r="E2" t="n">
-        <v>908.8583405269275</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F2" t="n">
-        <v>483.7341587163277</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N2" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
         <v>2107.354917580474</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>1966.556343058789</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V2" t="n">
-        <v>1966.556343058789</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W2" t="n">
-        <v>1966.556343058789</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="X2" t="n">
-        <v>1958.87674826694</v>
+        <v>1450.469050099676</v>
       </c>
       <c r="Y2" t="n">
-        <v>1957.579882262234</v>
+        <v>1045.131780054567</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>838.3748437825398</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>838.3748437825398</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M3" t="n">
-        <v>838.3748437825398</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N3" t="n">
-        <v>838.3748437825398</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O3" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
         <v>1853.185855629757</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>855.2210751021008</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>855.2210751021008</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
         <v>792.3900115791711</v>
@@ -4515,25 +4515,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.87263914955</v>
+        <v>2062.379836197395</v>
       </c>
       <c r="T4" t="n">
-        <v>1934.53329137545</v>
+        <v>1819.040488423295</v>
       </c>
       <c r="U4" t="n">
-        <v>1654.348842875754</v>
+        <v>1819.040488423295</v>
       </c>
       <c r="V4" t="n">
-        <v>1372.637375483783</v>
+        <v>1819.040488423295</v>
       </c>
       <c r="W4" t="n">
-        <v>1097.784971656296</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="X4" t="n">
-        <v>855.2210751021008</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>855.2210751021008</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1342.050951843433</v>
+        <v>1287.678729207029</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>1264.818403260733</v>
       </c>
       <c r="D5" t="n">
-        <v>895.898005082137</v>
+        <v>1245.566186486137</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,16 +4570,16 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N5" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
         <v>1100.603903091853</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.191253630124</v>
+        <v>2112.864363543668</v>
       </c>
       <c r="Y5" t="n">
-        <v>1761.899316134963</v>
+        <v>1707.527093498559</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>838.3748437825398</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>1389.040378766978</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>1389.040378766978</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="N6" t="n">
-        <v>1389.040378766978</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>789.6093675008983</v>
+        <v>729.0902991667033</v>
       </c>
       <c r="C7" t="n">
-        <v>617.6368043798143</v>
+        <v>557.1177360456193</v>
       </c>
       <c r="D7" t="n">
-        <v>454.3200315065851</v>
+        <v>393.80096317239</v>
       </c>
       <c r="E7" t="n">
-        <v>454.3200315065851</v>
+        <v>227.5927573252435</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4758,19 +4758,19 @@
         <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>2005.245872296875</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V7" t="n">
-        <v>1723.534404904904</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="W7" t="n">
-        <v>1448.682001077417</v>
+        <v>1388.162932743222</v>
       </c>
       <c r="X7" t="n">
-        <v>1206.118104523222</v>
+        <v>1145.599036189027</v>
       </c>
       <c r="Y7" t="n">
-        <v>979.775336212964</v>
+        <v>919.256267878769</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>305.2233393375071</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C8" t="n">
-        <v>141.9662850324534</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D8" t="n">
-        <v>122.7140682578577</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E8" t="n">
         <v>100.7775324461193</v>
@@ -4807,25 +4807,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>455.3583126271592</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>1006.023847611597</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.023847611597</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4840,16 +4840,16 @@
         <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.1289725064</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.1289725064</v>
+        <v>1503.227037680497</v>
       </c>
       <c r="X8" t="n">
-        <v>1130.408973674147</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y8" t="n">
-        <v>725.0717036290372</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336857</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L9" t="n">
-        <v>1145.829295018124</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
         <v>1307.021068682275</v>
@@ -4944,19 +4944,19 @@
         <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>44.49822504924753</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E10" t="n">
-        <v>44.49822504924753</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924753</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1751.22207078784</v>
+        <v>1339.293769980834</v>
       </c>
       <c r="C11" t="n">
-        <v>1324.321340801141</v>
+        <v>912.3930399941339</v>
       </c>
       <c r="D11" t="n">
-        <v>901.0287199861409</v>
+        <v>912.3930399941339</v>
       </c>
       <c r="E11" t="n">
-        <v>475.0517801339985</v>
+        <v>486.4161001419915</v>
       </c>
       <c r="F11" t="n">
-        <v>49.9275983233987</v>
+        <v>61.29191833139168</v>
       </c>
       <c r="G11" t="n">
-        <v>49.9275983233987</v>
+        <v>61.29191833139168</v>
       </c>
       <c r="H11" t="n">
-        <v>49.9275983233987</v>
+        <v>61.29191833139168</v>
       </c>
       <c r="I11" t="n">
         <v>49.9275983233987</v>
       </c>
       <c r="J11" t="n">
-        <v>71.57804448122417</v>
+        <v>463.3072631888503</v>
       </c>
       <c r="K11" t="n">
-        <v>112.271460187584</v>
+        <v>1081.161292440909</v>
       </c>
       <c r="L11" t="n">
-        <v>730.1254894396429</v>
+        <v>1137.641609284525</v>
       </c>
       <c r="M11" t="n">
-        <v>1347.979518691702</v>
+        <v>1205.633127949695</v>
       </c>
       <c r="N11" t="n">
-        <v>1965.833547943761</v>
+        <v>1275.474564331373</v>
       </c>
       <c r="O11" t="n">
-        <v>2415.81028836583</v>
+        <v>1339.256872283911</v>
       </c>
       <c r="P11" t="n">
-        <v>2464.640599907893</v>
+        <v>1820.553034267407</v>
       </c>
       <c r="Q11" t="n">
-        <v>2493.482058965802</v>
+        <v>2341.243400688052</v>
       </c>
       <c r="R11" t="n">
         <v>2496.379916169935</v>
@@ -5077,16 +5077,16 @@
         <v>2496.379916169935</v>
       </c>
       <c r="V11" t="n">
-        <v>2496.379916169935</v>
+        <v>2138.890501296184</v>
       </c>
       <c r="W11" t="n">
-        <v>2496.379916169935</v>
+        <v>1742.499151596531</v>
       </c>
       <c r="X11" t="n">
-        <v>2496.379916169935</v>
+        <v>1339.293769980834</v>
       </c>
       <c r="Y11" t="n">
-        <v>2171.07043507937</v>
+        <v>1339.293769980834</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>49.9275983233987</v>
       </c>
       <c r="I12" t="n">
-        <v>49.9275983233987</v>
+        <v>60.67639378907933</v>
       </c>
       <c r="J12" t="n">
-        <v>59.76455560408359</v>
+        <v>362.6158435393553</v>
       </c>
       <c r="K12" t="n">
-        <v>522.7480906877317</v>
+        <v>980.4698727914142</v>
       </c>
       <c r="L12" t="n">
-        <v>569.9594896487432</v>
+        <v>1027.681271752426</v>
       </c>
       <c r="M12" t="n">
-        <v>1187.813518900802</v>
+        <v>1085.920238600092</v>
       </c>
       <c r="N12" t="n">
-        <v>1249.93530270428</v>
+        <v>1148.04202240357</v>
       </c>
       <c r="O12" t="n">
-        <v>1303.153881689096</v>
+        <v>1201.260601388386</v>
       </c>
       <c r="P12" t="n">
-        <v>1342.72485989268</v>
+        <v>1240.831579591969</v>
       </c>
       <c r="Q12" t="n">
-        <v>1847.730186230359</v>
+        <v>1745.836905929648</v>
       </c>
       <c r="R12" t="n">
         <v>1847.730186230359</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1122.166451384117</v>
+        <v>980.8045640422536</v>
       </c>
       <c r="C13" t="n">
-        <v>950.193888263033</v>
+        <v>808.8320009211695</v>
       </c>
       <c r="D13" t="n">
-        <v>786.8771153898037</v>
+        <v>645.5152280479402</v>
       </c>
       <c r="E13" t="n">
-        <v>620.6689095426573</v>
+        <v>479.3070222007938</v>
       </c>
       <c r="F13" t="n">
-        <v>448.8071353172177</v>
+        <v>307.4452479753542</v>
       </c>
       <c r="G13" t="n">
-        <v>282.8239712622658</v>
+        <v>141.4620839204023</v>
       </c>
       <c r="H13" t="n">
         <v>141.4620839204023</v>
@@ -5199,16 +5199,16 @@
         <v>49.9275983233987</v>
       </c>
       <c r="J13" t="n">
-        <v>126.3917606759439</v>
+        <v>126.3917606759437</v>
       </c>
       <c r="K13" t="n">
         <v>384.0975565790661</v>
       </c>
       <c r="L13" t="n">
-        <v>778.6842328092772</v>
+        <v>778.6842328092773</v>
       </c>
       <c r="M13" t="n">
-        <v>1211.936194537375</v>
+        <v>1211.936194537376</v>
       </c>
       <c r="N13" t="n">
         <v>1630.493632748263</v>
@@ -5226,25 +5226,25 @@
         <v>2461.652600574706</v>
       </c>
       <c r="S13" t="n">
-        <v>2461.652600574706</v>
+        <v>2296.289238844879</v>
       </c>
       <c r="T13" t="n">
-        <v>2461.652600574706</v>
+        <v>2054.119787942448</v>
       </c>
       <c r="U13" t="n">
-        <v>2337.802956180093</v>
+        <v>2054.119787942448</v>
       </c>
       <c r="V13" t="n">
-        <v>2056.091488788122</v>
+        <v>1914.729601446259</v>
       </c>
       <c r="W13" t="n">
-        <v>1781.239084960635</v>
+        <v>1639.877197618772</v>
       </c>
       <c r="X13" t="n">
-        <v>1538.675188406441</v>
+        <v>1397.313301064577</v>
       </c>
       <c r="Y13" t="n">
-        <v>1312.332420096183</v>
+        <v>1170.970532754319</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1751.22207078784</v>
+        <v>488.1926483180916</v>
       </c>
       <c r="C14" t="n">
-        <v>1324.321340801141</v>
+        <v>61.29191833139168</v>
       </c>
       <c r="D14" t="n">
-        <v>901.0287199861409</v>
+        <v>61.29191833139168</v>
       </c>
       <c r="E14" t="n">
-        <v>475.0517801339985</v>
+        <v>61.29191833139168</v>
       </c>
       <c r="F14" t="n">
-        <v>49.9275983233987</v>
+        <v>61.29191833139168</v>
       </c>
       <c r="G14" t="n">
-        <v>49.9275983233987</v>
+        <v>61.29191833139168</v>
       </c>
       <c r="H14" t="n">
-        <v>49.9275983233987</v>
+        <v>61.29191833139168</v>
       </c>
       <c r="I14" t="n">
         <v>49.9275983233987</v>
       </c>
       <c r="J14" t="n">
-        <v>71.57804448122417</v>
+        <v>71.57804448122418</v>
       </c>
       <c r="K14" t="n">
         <v>112.271460187584</v>
@@ -5287,16 +5287,16 @@
         <v>730.1254894396429</v>
       </c>
       <c r="M14" t="n">
-        <v>1347.979518691702</v>
+        <v>798.1170081048131</v>
       </c>
       <c r="N14" t="n">
-        <v>1965.833547943761</v>
+        <v>1415.971037356872</v>
       </c>
       <c r="O14" t="n">
-        <v>2415.81028836583</v>
+        <v>2033.825066608931</v>
       </c>
       <c r="P14" t="n">
-        <v>2464.640599907893</v>
+        <v>2082.655378150994</v>
       </c>
       <c r="Q14" t="n">
         <v>2493.482058965802</v>
@@ -5305,25 +5305,25 @@
         <v>2496.379916169935</v>
       </c>
       <c r="S14" t="n">
-        <v>2496.379916169935</v>
+        <v>2405.922174253075</v>
       </c>
       <c r="T14" t="n">
-        <v>2496.379916169935</v>
+        <v>2187.668641248307</v>
       </c>
       <c r="U14" t="n">
-        <v>2496.379916169935</v>
+        <v>2059.130681768857</v>
       </c>
       <c r="V14" t="n">
-        <v>2496.379916169935</v>
+        <v>1701.641266895107</v>
       </c>
       <c r="W14" t="n">
-        <v>2496.379916169935</v>
+        <v>1305.249917195454</v>
       </c>
       <c r="X14" t="n">
-        <v>2171.07043507937</v>
+        <v>893.5299183632012</v>
       </c>
       <c r="Y14" t="n">
-        <v>2171.07043507937</v>
+        <v>488.1926483180916</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>49.9275983233987</v>
       </c>
       <c r="I15" t="n">
-        <v>49.9275983233987</v>
+        <v>68.39505692501513</v>
       </c>
       <c r="J15" t="n">
-        <v>351.8670480736747</v>
+        <v>78.23201420570003</v>
       </c>
       <c r="K15" t="n">
-        <v>381.3801338916687</v>
+        <v>107.7451000236941</v>
       </c>
       <c r="L15" t="n">
-        <v>999.2341631437276</v>
+        <v>154.9564989847057</v>
       </c>
       <c r="M15" t="n">
-        <v>1057.473129991394</v>
+        <v>213.1954658323715</v>
       </c>
       <c r="N15" t="n">
-        <v>1675.327159243453</v>
+        <v>275.3172496358496</v>
       </c>
       <c r="O15" t="n">
-        <v>1789.818926457964</v>
+        <v>622.9775503399104</v>
       </c>
       <c r="P15" t="n">
-        <v>1829.389904661548</v>
+        <v>1240.831579591969</v>
       </c>
       <c r="Q15" t="n">
-        <v>1847.730186230359</v>
+        <v>1745.836905929648</v>
       </c>
       <c r="R15" t="n">
         <v>1847.730186230359</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1122.166451384117</v>
+        <v>784.3215131037256</v>
       </c>
       <c r="C16" t="n">
-        <v>950.193888263033</v>
+        <v>612.3489499826416</v>
       </c>
       <c r="D16" t="n">
-        <v>786.8771153898037</v>
+        <v>449.0321771094123</v>
       </c>
       <c r="E16" t="n">
-        <v>620.6689095426573</v>
+        <v>282.8239712622658</v>
       </c>
       <c r="F16" t="n">
-        <v>448.8071353172177</v>
+        <v>282.8239712622658</v>
       </c>
       <c r="G16" t="n">
         <v>282.8239712622658</v>
@@ -5436,16 +5436,16 @@
         <v>49.9275983233987</v>
       </c>
       <c r="J16" t="n">
-        <v>126.3917606759439</v>
+        <v>126.3917606759438</v>
       </c>
       <c r="K16" t="n">
-        <v>384.0975565790663</v>
+        <v>384.0975565790661</v>
       </c>
       <c r="L16" t="n">
-        <v>778.6842328092775</v>
+        <v>778.6842328092773</v>
       </c>
       <c r="M16" t="n">
-        <v>1211.936194537376</v>
+        <v>1211.936194537375</v>
       </c>
       <c r="N16" t="n">
         <v>1630.493632748263</v>
@@ -5463,25 +5463,25 @@
         <v>2496.379916169935</v>
       </c>
       <c r="S16" t="n">
-        <v>2496.379916169935</v>
+        <v>2331.016554440108</v>
       </c>
       <c r="T16" t="n">
-        <v>2496.379916169935</v>
+        <v>2088.847103537676</v>
       </c>
       <c r="U16" t="n">
-        <v>2337.802956180093</v>
+        <v>1808.677589891661</v>
       </c>
       <c r="V16" t="n">
-        <v>2056.091488788122</v>
+        <v>1526.96612249969</v>
       </c>
       <c r="W16" t="n">
-        <v>1781.239084960635</v>
+        <v>1443.394146680244</v>
       </c>
       <c r="X16" t="n">
-        <v>1538.675188406441</v>
+        <v>1200.830250126049</v>
       </c>
       <c r="Y16" t="n">
-        <v>1312.332420096183</v>
+        <v>974.4874818157912</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2509.347570119653</v>
+        <v>2509.347570119655</v>
       </c>
       <c r="C17" t="n">
-        <v>2082.446840132953</v>
+        <v>2082.446840132955</v>
       </c>
       <c r="D17" t="n">
         <v>1659.154219317953</v>
@@ -5515,28 +5515,28 @@
         <v>101.3430263993753</v>
       </c>
       <c r="J17" t="n">
-        <v>122.9934725572008</v>
+        <v>514.7226912648269</v>
       </c>
       <c r="K17" t="n">
-        <v>914.6021510259209</v>
+        <v>1306.331369733547</v>
       </c>
       <c r="L17" t="n">
-        <v>1938.63643749711</v>
+        <v>2330.365656204736</v>
       </c>
       <c r="M17" t="n">
-        <v>3047.971007851776</v>
+        <v>2398.357174869906</v>
       </c>
       <c r="N17" t="n">
-        <v>4130.970329326256</v>
+        <v>2651.071231308302</v>
       </c>
       <c r="O17" t="n">
-        <v>4986.581692164659</v>
+        <v>3597.015239174117</v>
       </c>
       <c r="P17" t="n">
-        <v>5035.412003706723</v>
+        <v>4391.324438066237</v>
       </c>
       <c r="Q17" t="n">
-        <v>5064.253462764633</v>
+        <v>4912.014804486882</v>
       </c>
       <c r="R17" t="n">
         <v>5067.151319968765</v>
@@ -5554,13 +5554,13 @@
         <v>4142.6445529882</v>
       </c>
       <c r="W17" t="n">
-        <v>3746.253203288545</v>
+        <v>3746.253203288547</v>
       </c>
       <c r="X17" t="n">
-        <v>3334.533204456292</v>
+        <v>3334.533204456295</v>
       </c>
       <c r="Y17" t="n">
-        <v>2929.195934411183</v>
+        <v>2929.195934411185</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>101.3430263993753</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3430263993753</v>
+        <v>119.8104850009917</v>
       </c>
       <c r="J18" t="n">
-        <v>111.1799836800602</v>
+        <v>421.7499347512677</v>
       </c>
       <c r="K18" t="n">
-        <v>140.6930694980543</v>
+        <v>1031.885300867391</v>
       </c>
       <c r="L18" t="n">
-        <v>187.9044684590658</v>
+        <v>1079.096699828403</v>
       </c>
       <c r="M18" t="n">
-        <v>1324.995785989981</v>
+        <v>1137.335666676068</v>
       </c>
       <c r="N18" t="n">
-        <v>1788.015775549125</v>
+        <v>1199.457450479546</v>
       </c>
       <c r="O18" t="n">
-        <v>1841.234354533941</v>
+        <v>1252.676029464362</v>
       </c>
       <c r="P18" t="n">
-        <v>1880.805332737525</v>
+        <v>1292.247007667946</v>
       </c>
       <c r="Q18" t="n">
-        <v>1899.145614306336</v>
+        <v>1797.252334005625</v>
       </c>
       <c r="R18" t="n">
         <v>1899.145614306336</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1173.581879460094</v>
+        <v>884.5816014039199</v>
       </c>
       <c r="C19" t="n">
-        <v>1001.60931633901</v>
+        <v>712.6090382828359</v>
       </c>
       <c r="D19" t="n">
-        <v>838.2925434657803</v>
+        <v>549.2922654096066</v>
       </c>
       <c r="E19" t="n">
-        <v>672.0843376186339</v>
+        <v>383.0840595624601</v>
       </c>
       <c r="F19" t="n">
-        <v>500.2225633931943</v>
+        <v>358.8606760513308</v>
       </c>
       <c r="G19" t="n">
-        <v>334.2393993382424</v>
+        <v>192.8775119963789</v>
       </c>
       <c r="H19" t="n">
         <v>192.8775119963789</v>
@@ -5691,34 +5691,34 @@
         <v>2075.268220110684</v>
       </c>
       <c r="P19" t="n">
-        <v>2398.323981504625</v>
+        <v>2398.323981504626</v>
       </c>
       <c r="Q19" t="n">
-        <v>2547.795344245911</v>
+        <v>2547.795344245912</v>
       </c>
       <c r="R19" t="n">
         <v>2513.068028650683</v>
       </c>
       <c r="S19" t="n">
-        <v>2513.068028650683</v>
+        <v>2347.704666920856</v>
       </c>
       <c r="T19" t="n">
-        <v>2270.898577748251</v>
+        <v>2105.535216018424</v>
       </c>
       <c r="U19" t="n">
-        <v>2270.898577748251</v>
+        <v>1825.365702372409</v>
       </c>
       <c r="V19" t="n">
-        <v>1989.18711035628</v>
+        <v>1543.654234980438</v>
       </c>
       <c r="W19" t="n">
-        <v>1714.334706528793</v>
+        <v>1543.654234980438</v>
       </c>
       <c r="X19" t="n">
-        <v>1471.770809974598</v>
+        <v>1301.090338426244</v>
       </c>
       <c r="Y19" t="n">
-        <v>1363.747848172159</v>
+        <v>1074.747570115986</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2509.347570119653</v>
+        <v>2509.347570119655</v>
       </c>
       <c r="C20" t="n">
-        <v>2082.446840132953</v>
+        <v>2082.446840132955</v>
       </c>
       <c r="D20" t="n">
-        <v>1659.154219317953</v>
+        <v>1659.154219317955</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.177279465811</v>
+        <v>1233.177279465813</v>
       </c>
       <c r="F20" t="n">
-        <v>808.0530976552109</v>
+        <v>808.0530976552129</v>
       </c>
       <c r="G20" t="n">
-        <v>404.324437974665</v>
+        <v>404.324437974667</v>
       </c>
       <c r="H20" t="n">
         <v>112.7073464073683</v>
@@ -5755,49 +5755,49 @@
         <v>514.7226912648269</v>
       </c>
       <c r="K20" t="n">
-        <v>555.4161069711868</v>
+        <v>1306.331369733547</v>
       </c>
       <c r="L20" t="n">
-        <v>611.8964238148027</v>
+        <v>2330.365656204736</v>
       </c>
       <c r="M20" t="n">
-        <v>1721.230994169468</v>
+        <v>2733.468453204376</v>
       </c>
       <c r="N20" t="n">
-        <v>2804.230315643948</v>
+        <v>2803.309889586053</v>
       </c>
       <c r="O20" t="n">
-        <v>3597.015239174117</v>
+        <v>3749.253897451867</v>
       </c>
       <c r="P20" t="n">
-        <v>4391.324438066237</v>
+        <v>4543.563096343988</v>
       </c>
       <c r="Q20" t="n">
-        <v>4912.014804486882</v>
+        <v>5064.253462764633</v>
       </c>
       <c r="R20" t="n">
         <v>5067.151319968765</v>
       </c>
       <c r="S20" t="n">
-        <v>4976.693578051903</v>
+        <v>4976.693578051905</v>
       </c>
       <c r="T20" t="n">
-        <v>4758.440045047136</v>
+        <v>4758.440045047138</v>
       </c>
       <c r="U20" t="n">
-        <v>4500.133967861949</v>
+        <v>4500.133967861951</v>
       </c>
       <c r="V20" t="n">
-        <v>4142.644552988198</v>
+        <v>4142.6445529882</v>
       </c>
       <c r="W20" t="n">
-        <v>3746.253203288545</v>
+        <v>3746.253203288547</v>
       </c>
       <c r="X20" t="n">
-        <v>3334.533204456292</v>
+        <v>3334.533204456295</v>
       </c>
       <c r="Y20" t="n">
-        <v>2929.195934411183</v>
+        <v>2929.195934411185</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3832.991415921696</v>
+        <v>664.9857102592651</v>
       </c>
       <c r="C21" t="n">
-        <v>3715.485512439201</v>
+        <v>547.4798067767699</v>
       </c>
       <c r="D21" t="n">
-        <v>3611.645553954486</v>
+        <v>443.6398482920549</v>
       </c>
       <c r="E21" t="n">
-        <v>3506.943620227423</v>
+        <v>338.9379145649921</v>
       </c>
       <c r="F21" t="n">
-        <v>3413.297789910328</v>
+        <v>245.2920842478963</v>
       </c>
       <c r="G21" t="n">
-        <v>3319.570612381066</v>
+        <v>151.5649067186349</v>
       </c>
       <c r="H21" t="n">
-        <v>3269.348732061806</v>
+        <v>101.3430263993753</v>
       </c>
       <c r="I21" t="n">
-        <v>3269.348732061806</v>
+        <v>101.3430263993753</v>
       </c>
       <c r="J21" t="n">
-        <v>3279.185689342492</v>
+        <v>403.2824761496513</v>
       </c>
       <c r="K21" t="n">
-        <v>3308.698775160486</v>
+        <v>1031.885300867391</v>
       </c>
       <c r="L21" t="n">
-        <v>3355.910174121497</v>
+        <v>1079.096699828403</v>
       </c>
       <c r="M21" t="n">
-        <v>3414.149140969163</v>
+        <v>1137.335666676068</v>
       </c>
       <c r="N21" t="n">
-        <v>4586.715469176917</v>
+        <v>1199.457450479546</v>
       </c>
       <c r="O21" t="n">
-        <v>5009.240060196371</v>
+        <v>1252.676029464362</v>
       </c>
       <c r="P21" t="n">
-        <v>5048.811038399955</v>
+        <v>1292.247007667946</v>
       </c>
       <c r="Q21" t="n">
-        <v>5067.151319968765</v>
+        <v>1797.252334005625</v>
       </c>
       <c r="R21" t="n">
-        <v>5067.151319968765</v>
+        <v>1899.145614306336</v>
       </c>
       <c r="S21" t="n">
-        <v>4991.8934175389</v>
+        <v>1823.887711876471</v>
       </c>
       <c r="T21" t="n">
-        <v>4851.329885865661</v>
+        <v>1683.324180203231</v>
       </c>
       <c r="U21" t="n">
-        <v>4666.58317624932</v>
+        <v>1498.577470586889</v>
       </c>
       <c r="V21" t="n">
-        <v>4461.610037388587</v>
+        <v>1293.604331726155</v>
       </c>
       <c r="W21" t="n">
-        <v>4265.088660221803</v>
+        <v>1097.082954559373</v>
       </c>
       <c r="X21" t="n">
-        <v>4101.611313988466</v>
+        <v>933.6056083260355</v>
       </c>
       <c r="Y21" t="n">
-        <v>3961.918425341759</v>
+        <v>793.9127196793279</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1173.581879460094</v>
+        <v>809.8198749014882</v>
       </c>
       <c r="C22" t="n">
-        <v>1001.60931633901</v>
+        <v>637.8473117804042</v>
       </c>
       <c r="D22" t="n">
-        <v>838.2925434657803</v>
+        <v>605.3961705269132</v>
       </c>
       <c r="E22" t="n">
-        <v>672.0843376186339</v>
+        <v>439.1879646797668</v>
       </c>
       <c r="F22" t="n">
-        <v>500.2225633931943</v>
+        <v>267.3261904543272</v>
       </c>
       <c r="G22" t="n">
-        <v>334.2393993382424</v>
+        <v>101.3430263993753</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8775119963789</v>
+        <v>101.3430263993753</v>
       </c>
       <c r="I22" t="n">
         <v>101.3430263993753</v>
@@ -5928,34 +5928,34 @@
         <v>2075.268220110684</v>
       </c>
       <c r="P22" t="n">
-        <v>2398.323981504625</v>
+        <v>2398.323981504626</v>
       </c>
       <c r="Q22" t="n">
-        <v>2547.795344245911</v>
+        <v>2547.795344245912</v>
       </c>
       <c r="R22" t="n">
-        <v>2547.795344245911</v>
+        <v>2547.795344245912</v>
       </c>
       <c r="S22" t="n">
-        <v>2547.795344245911</v>
+        <v>2547.795344245912</v>
       </c>
       <c r="T22" t="n">
-        <v>2547.795344245911</v>
+        <v>2305.62589334348</v>
       </c>
       <c r="U22" t="n">
-        <v>2389.21838425607</v>
+        <v>2025.456379697465</v>
       </c>
       <c r="V22" t="n">
-        <v>2107.506916864099</v>
+        <v>1743.744912305494</v>
       </c>
       <c r="W22" t="n">
-        <v>1832.654513036612</v>
+        <v>1468.892508478007</v>
       </c>
       <c r="X22" t="n">
-        <v>1590.090616482417</v>
+        <v>1226.328611923812</v>
       </c>
       <c r="Y22" t="n">
-        <v>1363.747848172159</v>
+        <v>999.9858436135539</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>808.0530976552109</v>
       </c>
       <c r="G23" t="n">
-        <v>404.3244379746649</v>
+        <v>404.3244379746648</v>
       </c>
       <c r="H23" t="n">
         <v>112.7073464073683</v>
@@ -5989,28 +5989,28 @@
         <v>101.3430263993753</v>
       </c>
       <c r="J23" t="n">
-        <v>122.9934725572008</v>
+        <v>514.7226912648269</v>
       </c>
       <c r="K23" t="n">
-        <v>914.6021510259209</v>
+        <v>1306.331369733547</v>
       </c>
       <c r="L23" t="n">
-        <v>1938.63643749711</v>
+        <v>2330.365656204736</v>
       </c>
       <c r="M23" t="n">
-        <v>3047.971007851776</v>
+        <v>2581.229794926625</v>
       </c>
       <c r="N23" t="n">
-        <v>4130.970329326256</v>
+        <v>2651.071231308302</v>
       </c>
       <c r="O23" t="n">
-        <v>4986.581692164659</v>
+        <v>3597.015239174117</v>
       </c>
       <c r="P23" t="n">
-        <v>5035.412003706723</v>
+        <v>4391.324438066237</v>
       </c>
       <c r="Q23" t="n">
-        <v>5064.253462764633</v>
+        <v>4912.014804486882</v>
       </c>
       <c r="R23" t="n">
         <v>5067.151319968765</v>
@@ -6068,28 +6068,28 @@
         <v>101.3430263993753</v>
       </c>
       <c r="J24" t="n">
-        <v>111.1799836800602</v>
+        <v>389.7120469860572</v>
       </c>
       <c r="K24" t="n">
-        <v>140.6930694980543</v>
+        <v>1031.885300867391</v>
       </c>
       <c r="L24" t="n">
-        <v>187.9044684590658</v>
+        <v>1079.096699828403</v>
       </c>
       <c r="M24" t="n">
-        <v>615.4494473413708</v>
+        <v>1137.335666676068</v>
       </c>
       <c r="N24" t="n">
-        <v>1788.015775549125</v>
+        <v>1199.457450479546</v>
       </c>
       <c r="O24" t="n">
-        <v>1841.234354533941</v>
+        <v>1252.676029464362</v>
       </c>
       <c r="P24" t="n">
-        <v>1880.805332737525</v>
+        <v>1292.247007667946</v>
       </c>
       <c r="Q24" t="n">
-        <v>1899.145614306336</v>
+        <v>1797.252334005625</v>
       </c>
       <c r="R24" t="n">
         <v>1899.145614306336</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3129.085173299287</v>
+        <v>609.7291975764329</v>
       </c>
       <c r="C25" t="n">
-        <v>3044.424857621331</v>
+        <v>437.7566344553488</v>
       </c>
       <c r="D25" t="n">
-        <v>3044.424857621331</v>
+        <v>408.6880777961908</v>
       </c>
       <c r="E25" t="n">
-        <v>2878.216651774184</v>
+        <v>408.6880777961908</v>
       </c>
       <c r="F25" t="n">
-        <v>2878.216651774184</v>
+        <v>408.6880777961908</v>
       </c>
       <c r="G25" t="n">
-        <v>2712.233487719232</v>
+        <v>242.7049137412389</v>
       </c>
       <c r="H25" t="n">
-        <v>2712.233487719232</v>
+        <v>101.3430263993753</v>
       </c>
       <c r="I25" t="n">
-        <v>2620.699002122229</v>
+        <v>101.3430263993753</v>
       </c>
       <c r="J25" t="n">
-        <v>2697.163164474774</v>
+        <v>177.8071887519204</v>
       </c>
       <c r="K25" t="n">
-        <v>2954.868960377896</v>
+        <v>435.5129846550427</v>
       </c>
       <c r="L25" t="n">
-        <v>3349.455636608107</v>
+        <v>830.0996608852539</v>
       </c>
       <c r="M25" t="n">
-        <v>3782.707598336206</v>
+        <v>1263.351622613352</v>
       </c>
       <c r="N25" t="n">
-        <v>4201.265036547093</v>
+        <v>1681.909060824239</v>
       </c>
       <c r="O25" t="n">
-        <v>4594.624195833538</v>
+        <v>2075.268220110684</v>
       </c>
       <c r="P25" t="n">
-        <v>4917.679957227479</v>
+        <v>2398.323981504626</v>
       </c>
       <c r="Q25" t="n">
-        <v>5067.151319968765</v>
+        <v>2547.795344245912</v>
       </c>
       <c r="R25" t="n">
-        <v>5032.424004373536</v>
+        <v>2513.068028650683</v>
       </c>
       <c r="S25" t="n">
-        <v>4867.06064264371</v>
+        <v>2347.704666920856</v>
       </c>
       <c r="T25" t="n">
-        <v>4624.891191741278</v>
+        <v>2105.535216018424</v>
       </c>
       <c r="U25" t="n">
-        <v>4344.721678095263</v>
+        <v>1825.365702372409</v>
       </c>
       <c r="V25" t="n">
-        <v>4063.010210703292</v>
+        <v>1543.654234980438</v>
       </c>
       <c r="W25" t="n">
-        <v>3788.157806875805</v>
+        <v>1268.801831152951</v>
       </c>
       <c r="X25" t="n">
-        <v>3545.593910321611</v>
+        <v>1026.237934598757</v>
       </c>
       <c r="Y25" t="n">
-        <v>3319.251142011352</v>
+        <v>799.8951662884986</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2509.347570119655</v>
+        <v>2509.347570119653</v>
       </c>
       <c r="C26" t="n">
-        <v>2082.446840132955</v>
+        <v>2082.446840132953</v>
       </c>
       <c r="D26" t="n">
-        <v>1659.154219317955</v>
+        <v>1659.154219317953</v>
       </c>
       <c r="E26" t="n">
-        <v>1233.177279465813</v>
+        <v>1233.177279465811</v>
       </c>
       <c r="F26" t="n">
         <v>808.0530976552109</v>
       </c>
       <c r="G26" t="n">
-        <v>404.324437974665</v>
+        <v>404.3244379746648</v>
       </c>
       <c r="H26" t="n">
         <v>112.7073464073683</v>
@@ -6226,25 +6226,25 @@
         <v>101.3430263993753</v>
       </c>
       <c r="J26" t="n">
-        <v>122.9934725572008</v>
+        <v>514.7226912648269</v>
       </c>
       <c r="K26" t="n">
-        <v>914.6021510259209</v>
+        <v>1306.331369733547</v>
       </c>
       <c r="L26" t="n">
-        <v>1938.63643749711</v>
+        <v>2330.365656204736</v>
       </c>
       <c r="M26" t="n">
-        <v>3047.971007851776</v>
+        <v>3439.700226559402</v>
       </c>
       <c r="N26" t="n">
-        <v>4130.970329326256</v>
+        <v>3685.471589499329</v>
       </c>
       <c r="O26" t="n">
-        <v>4986.581692164659</v>
+        <v>3749.253897451867</v>
       </c>
       <c r="P26" t="n">
-        <v>5035.412003706723</v>
+        <v>4543.563096343988</v>
       </c>
       <c r="Q26" t="n">
         <v>5064.253462764633</v>
@@ -6256,22 +6256,22 @@
         <v>4976.693578051905</v>
       </c>
       <c r="T26" t="n">
-        <v>4758.440045047138</v>
+        <v>4758.440045047137</v>
       </c>
       <c r="U26" t="n">
-        <v>4500.133967861951</v>
+        <v>4500.13396786195</v>
       </c>
       <c r="V26" t="n">
-        <v>4142.6445529882</v>
+        <v>4142.644552988198</v>
       </c>
       <c r="W26" t="n">
-        <v>3746.253203288547</v>
+        <v>3746.253203288545</v>
       </c>
       <c r="X26" t="n">
-        <v>3334.533204456295</v>
+        <v>3334.533204456292</v>
       </c>
       <c r="Y26" t="n">
-        <v>2929.195934411185</v>
+        <v>2929.195934411183</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>101.3430263993753</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3430263993753</v>
+        <v>119.8104850009917</v>
       </c>
       <c r="J27" t="n">
-        <v>111.1799836800602</v>
+        <v>129.6474422816766</v>
       </c>
       <c r="K27" t="n">
-        <v>753.3532375613939</v>
+        <v>159.1605280996707</v>
       </c>
       <c r="L27" t="n">
-        <v>800.5646365224054</v>
+        <v>1065.460670990676</v>
       </c>
       <c r="M27" t="n">
-        <v>858.8036033700712</v>
+        <v>1137.335666676068</v>
       </c>
       <c r="N27" t="n">
-        <v>920.9253871735493</v>
+        <v>1199.457450479546</v>
       </c>
       <c r="O27" t="n">
-        <v>1001.590224401952</v>
+        <v>1252.676029464362</v>
       </c>
       <c r="P27" t="n">
-        <v>1778.912052436814</v>
+        <v>1292.247007667946</v>
       </c>
       <c r="Q27" t="n">
         <v>1797.252334005625</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3692.937855182947</v>
+        <v>609.7291975764329</v>
       </c>
       <c r="C28" t="n">
-        <v>3520.965292061863</v>
+        <v>437.7566344553488</v>
       </c>
       <c r="D28" t="n">
-        <v>3357.648519188634</v>
+        <v>414.5666879666784</v>
       </c>
       <c r="E28" t="n">
-        <v>3191.440313341488</v>
+        <v>414.5666879666784</v>
       </c>
       <c r="F28" t="n">
-        <v>3019.578539116048</v>
+        <v>242.7049137412389</v>
       </c>
       <c r="G28" t="n">
-        <v>2853.595375061096</v>
+        <v>242.7049137412389</v>
       </c>
       <c r="H28" t="n">
-        <v>2712.233487719232</v>
+        <v>101.3430263993753</v>
       </c>
       <c r="I28" t="n">
-        <v>2620.699002122229</v>
+        <v>101.3430263993753</v>
       </c>
       <c r="J28" t="n">
-        <v>2697.163164474774</v>
+        <v>177.8071887519204</v>
       </c>
       <c r="K28" t="n">
-        <v>2954.868960377896</v>
+        <v>435.5129846550427</v>
       </c>
       <c r="L28" t="n">
-        <v>3349.455636608107</v>
+        <v>830.0996608852539</v>
       </c>
       <c r="M28" t="n">
-        <v>3782.707598336206</v>
+        <v>1263.351622613352</v>
       </c>
       <c r="N28" t="n">
-        <v>4201.265036547093</v>
+        <v>1681.909060824239</v>
       </c>
       <c r="O28" t="n">
-        <v>4594.624195833538</v>
+        <v>2075.268220110684</v>
       </c>
       <c r="P28" t="n">
-        <v>4917.679957227479</v>
+        <v>2398.323981504626</v>
       </c>
       <c r="Q28" t="n">
-        <v>5067.151319968765</v>
+        <v>2547.795344245912</v>
       </c>
       <c r="R28" t="n">
-        <v>5032.424004373536</v>
+        <v>2513.068028650683</v>
       </c>
       <c r="S28" t="n">
-        <v>4867.06064264371</v>
+        <v>2347.704666920856</v>
       </c>
       <c r="T28" t="n">
-        <v>4624.891191741278</v>
+        <v>2105.535216018424</v>
       </c>
       <c r="U28" t="n">
-        <v>4344.721678095263</v>
+        <v>1825.365702372409</v>
       </c>
       <c r="V28" t="n">
-        <v>4063.010210703292</v>
+        <v>1543.654234980438</v>
       </c>
       <c r="W28" t="n">
-        <v>3935.501751737142</v>
+        <v>1268.801831152951</v>
       </c>
       <c r="X28" t="n">
-        <v>3692.937855182947</v>
+        <v>1026.237934598757</v>
       </c>
       <c r="Y28" t="n">
-        <v>3692.937855182947</v>
+        <v>799.8951662884986</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>808.0530976552109</v>
       </c>
       <c r="G29" t="n">
-        <v>404.3244379746648</v>
+        <v>404.324437974665</v>
       </c>
       <c r="H29" t="n">
         <v>112.7073464073683</v>
@@ -6466,22 +6466,22 @@
         <v>122.9934725572008</v>
       </c>
       <c r="K29" t="n">
-        <v>163.6868882635606</v>
+        <v>824.2695059985094</v>
       </c>
       <c r="L29" t="n">
-        <v>610.9759977569076</v>
+        <v>1848.303792469699</v>
       </c>
       <c r="M29" t="n">
-        <v>1720.310568111574</v>
+        <v>2957.638362824365</v>
       </c>
       <c r="N29" t="n">
-        <v>2803.309889586053</v>
+        <v>4040.637684298845</v>
       </c>
       <c r="O29" t="n">
-        <v>3749.253897451867</v>
+        <v>4986.581692164659</v>
       </c>
       <c r="P29" t="n">
-        <v>4543.563096343988</v>
+        <v>5035.412003706723</v>
       </c>
       <c r="Q29" t="n">
         <v>5064.253462764633</v>
@@ -6493,10 +6493,10 @@
         <v>4976.693578051905</v>
       </c>
       <c r="T29" t="n">
-        <v>4758.440045047137</v>
+        <v>4758.440045047136</v>
       </c>
       <c r="U29" t="n">
-        <v>4500.13396786195</v>
+        <v>4500.133967861949</v>
       </c>
       <c r="V29" t="n">
         <v>4142.644552988198</v>
@@ -6539,31 +6539,31 @@
         <v>101.3430263993753</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3430263993753</v>
+        <v>108.2454593847391</v>
       </c>
       <c r="J30" t="n">
-        <v>403.2824761496513</v>
+        <v>410.1849091350151</v>
       </c>
       <c r="K30" t="n">
-        <v>882.6927761056915</v>
+        <v>439.6979949530092</v>
       </c>
       <c r="L30" t="n">
-        <v>929.9041750667029</v>
+        <v>486.9093939140207</v>
       </c>
       <c r="M30" t="n">
-        <v>988.1431419143687</v>
+        <v>1624.000711444936</v>
       </c>
       <c r="N30" t="n">
-        <v>1050.264925717847</v>
+        <v>1686.122495248414</v>
       </c>
       <c r="O30" t="n">
-        <v>1103.483504702663</v>
+        <v>1739.34107423323</v>
       </c>
       <c r="P30" t="n">
-        <v>1880.805332737525</v>
+        <v>1778.912052436814</v>
       </c>
       <c r="Q30" t="n">
-        <v>1899.145614306336</v>
+        <v>1797.252334005625</v>
       </c>
       <c r="R30" t="n">
         <v>1899.145614306336</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1173.581879460094</v>
+        <v>1010.265106586864</v>
       </c>
       <c r="C31" t="n">
-        <v>1001.60931633901</v>
+        <v>838.2925434657803</v>
       </c>
       <c r="D31" t="n">
         <v>838.2925434657803</v>
@@ -6639,34 +6639,34 @@
         <v>2075.268220110684</v>
       </c>
       <c r="P31" t="n">
-        <v>2398.323981504625</v>
+        <v>2398.323981504626</v>
       </c>
       <c r="Q31" t="n">
-        <v>2547.795344245911</v>
+        <v>2547.795344245912</v>
       </c>
       <c r="R31" t="n">
-        <v>2547.795344245911</v>
+        <v>2547.795344245912</v>
       </c>
       <c r="S31" t="n">
-        <v>2547.795344245911</v>
+        <v>2382.431982516085</v>
       </c>
       <c r="T31" t="n">
-        <v>2547.795344245911</v>
+        <v>2382.431982516085</v>
       </c>
       <c r="U31" t="n">
-        <v>2389.21838425607</v>
+        <v>2102.26246887007</v>
       </c>
       <c r="V31" t="n">
-        <v>2107.506916864099</v>
+        <v>1820.551001478099</v>
       </c>
       <c r="W31" t="n">
-        <v>1832.654513036612</v>
+        <v>1545.698597650612</v>
       </c>
       <c r="X31" t="n">
-        <v>1590.090616482417</v>
+        <v>1426.773843609188</v>
       </c>
       <c r="Y31" t="n">
-        <v>1363.747848172159</v>
+        <v>1200.43107529893</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>808.0530976552109</v>
       </c>
       <c r="G32" t="n">
-        <v>404.3244379746648</v>
+        <v>404.324437974665</v>
       </c>
       <c r="H32" t="n">
         <v>112.7073464073683</v>
@@ -6700,22 +6700,22 @@
         <v>101.3430263993753</v>
       </c>
       <c r="J32" t="n">
-        <v>122.9934725572008</v>
+        <v>514.7226912648269</v>
       </c>
       <c r="K32" t="n">
-        <v>824.2695059985101</v>
+        <v>1306.331369733547</v>
       </c>
       <c r="L32" t="n">
-        <v>1848.303792469699</v>
+        <v>2330.365656204736</v>
       </c>
       <c r="M32" t="n">
-        <v>2957.638362824365</v>
+        <v>3439.700226559402</v>
       </c>
       <c r="N32" t="n">
-        <v>4040.637684298845</v>
+        <v>4522.699548033882</v>
       </c>
       <c r="O32" t="n">
-        <v>4986.581692164659</v>
+        <v>4586.48185598642</v>
       </c>
       <c r="P32" t="n">
         <v>5035.412003706723</v>
@@ -6730,7 +6730,7 @@
         <v>4976.693578051905</v>
       </c>
       <c r="T32" t="n">
-        <v>4758.440045047137</v>
+        <v>4758.440045047138</v>
       </c>
       <c r="U32" t="n">
         <v>4500.13396786195</v>
@@ -6782,22 +6782,22 @@
         <v>111.1799836800602</v>
       </c>
       <c r="K33" t="n">
-        <v>140.6930694980543</v>
+        <v>396.0277313368232</v>
       </c>
       <c r="L33" t="n">
-        <v>187.9044684590658</v>
+        <v>443.2391302978347</v>
       </c>
       <c r="M33" t="n">
-        <v>615.4494473413708</v>
+        <v>501.4780971455006</v>
       </c>
       <c r="N33" t="n">
-        <v>1788.015775549125</v>
+        <v>563.5998809489787</v>
       </c>
       <c r="O33" t="n">
-        <v>1841.234354533941</v>
+        <v>616.8184599337945</v>
       </c>
       <c r="P33" t="n">
-        <v>1880.805332737525</v>
+        <v>1394.140287968657</v>
       </c>
       <c r="Q33" t="n">
         <v>1899.145614306336</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>799.8951662884981</v>
+        <v>746.7580578687769</v>
       </c>
       <c r="C34" t="n">
-        <v>799.8951662884981</v>
+        <v>746.7580578687769</v>
       </c>
       <c r="D34" t="n">
-        <v>799.8951662884981</v>
+        <v>746.7580578687769</v>
       </c>
       <c r="E34" t="n">
-        <v>672.0843376186339</v>
+        <v>580.5498520216304</v>
       </c>
       <c r="F34" t="n">
-        <v>500.2225633931943</v>
+        <v>408.6880777961908</v>
       </c>
       <c r="G34" t="n">
-        <v>334.2393993382424</v>
+        <v>242.7049137412389</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8775119963789</v>
+        <v>101.3430263993753</v>
       </c>
       <c r="I34" t="n">
         <v>101.3430263993753</v>
@@ -6876,10 +6876,10 @@
         <v>2075.268220110684</v>
       </c>
       <c r="P34" t="n">
-        <v>2398.323981504625</v>
+        <v>2398.323981504626</v>
       </c>
       <c r="Q34" t="n">
-        <v>2547.795344245911</v>
+        <v>2547.795344245912</v>
       </c>
       <c r="R34" t="n">
         <v>2513.068028650683</v>
@@ -6900,10 +6900,10 @@
         <v>1268.801831152951</v>
       </c>
       <c r="X34" t="n">
-        <v>1026.237934598756</v>
+        <v>1026.237934598757</v>
       </c>
       <c r="Y34" t="n">
-        <v>799.8951662884981</v>
+        <v>799.8951662884986</v>
       </c>
     </row>
     <row r="35">
@@ -6940,13 +6940,13 @@
         <v>122.9934725572008</v>
       </c>
       <c r="K35" t="n">
-        <v>914.6021510259209</v>
+        <v>824.2695059985094</v>
       </c>
       <c r="L35" t="n">
-        <v>1938.63643749711</v>
+        <v>1848.303792469699</v>
       </c>
       <c r="M35" t="n">
-        <v>3047.971007851776</v>
+        <v>2957.638362824365</v>
       </c>
       <c r="N35" t="n">
         <v>4040.637684298845</v>
@@ -7016,25 +7016,25 @@
         <v>101.3430263993753</v>
       </c>
       <c r="J36" t="n">
-        <v>403.2824761496513</v>
+        <v>111.1799836800602</v>
       </c>
       <c r="K36" t="n">
-        <v>1045.455730030985</v>
+        <v>753.3532375613939</v>
       </c>
       <c r="L36" t="n">
-        <v>1092.667128991997</v>
+        <v>800.5646365224055</v>
       </c>
       <c r="M36" t="n">
-        <v>1150.906095839662</v>
+        <v>858.8036033700714</v>
       </c>
       <c r="N36" t="n">
-        <v>1213.027879643141</v>
+        <v>920.9253871735496</v>
       </c>
       <c r="O36" t="n">
-        <v>1266.246458627956</v>
+        <v>974.1439661583654</v>
       </c>
       <c r="P36" t="n">
-        <v>1880.805332737525</v>
+        <v>1751.465794193227</v>
       </c>
       <c r="Q36" t="n">
         <v>1899.145614306336</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3129.085173299287</v>
+        <v>924.6260268176761</v>
       </c>
       <c r="C37" t="n">
-        <v>2957.112610178203</v>
+        <v>752.6534636965921</v>
       </c>
       <c r="D37" t="n">
-        <v>2793.795837304974</v>
+        <v>605.3961705269132</v>
       </c>
       <c r="E37" t="n">
-        <v>2627.587631457827</v>
+        <v>439.1879646797668</v>
       </c>
       <c r="F37" t="n">
-        <v>2620.699002122229</v>
+        <v>267.3261904543272</v>
       </c>
       <c r="G37" t="n">
-        <v>2620.699002122229</v>
+        <v>101.3430263993753</v>
       </c>
       <c r="H37" t="n">
-        <v>2620.699002122229</v>
+        <v>101.3430263993753</v>
       </c>
       <c r="I37" t="n">
-        <v>2620.699002122229</v>
+        <v>101.3430263993753</v>
       </c>
       <c r="J37" t="n">
-        <v>2697.163164474774</v>
+        <v>177.8071887519204</v>
       </c>
       <c r="K37" t="n">
-        <v>2954.868960377896</v>
+        <v>435.5129846550427</v>
       </c>
       <c r="L37" t="n">
-        <v>3349.455636608107</v>
+        <v>830.0996608852539</v>
       </c>
       <c r="M37" t="n">
-        <v>3782.707598336206</v>
+        <v>1263.351622613352</v>
       </c>
       <c r="N37" t="n">
-        <v>4201.265036547093</v>
+        <v>1681.909060824239</v>
       </c>
       <c r="O37" t="n">
-        <v>4594.624195833538</v>
+        <v>2075.268220110684</v>
       </c>
       <c r="P37" t="n">
-        <v>4917.679957227479</v>
+        <v>2398.323981504626</v>
       </c>
       <c r="Q37" t="n">
-        <v>5067.151319968765</v>
+        <v>2547.795344245912</v>
       </c>
       <c r="R37" t="n">
-        <v>5032.424004373536</v>
+        <v>2547.795344245912</v>
       </c>
       <c r="S37" t="n">
-        <v>4867.06064264371</v>
+        <v>2382.431982516085</v>
       </c>
       <c r="T37" t="n">
-        <v>4624.891191741278</v>
+        <v>2140.262531613653</v>
       </c>
       <c r="U37" t="n">
-        <v>4344.721678095263</v>
+        <v>2140.262531613653</v>
       </c>
       <c r="V37" t="n">
-        <v>4063.010210703292</v>
+        <v>1858.551064221682</v>
       </c>
       <c r="W37" t="n">
-        <v>3788.157806875805</v>
+        <v>1583.698660394195</v>
       </c>
       <c r="X37" t="n">
-        <v>3545.593910321611</v>
+        <v>1341.13476384</v>
       </c>
       <c r="Y37" t="n">
-        <v>3319.251142011352</v>
+        <v>1114.791995529742</v>
       </c>
     </row>
     <row r="38">
@@ -7162,37 +7162,37 @@
         <v>1233.177279465811</v>
       </c>
       <c r="F38" t="n">
-        <v>808.0530976552109</v>
+        <v>808.0530976552104</v>
       </c>
       <c r="G38" t="n">
-        <v>404.324437974665</v>
+        <v>404.3244379746648</v>
       </c>
       <c r="H38" t="n">
-        <v>112.7073464073683</v>
+        <v>112.7073464073674</v>
       </c>
       <c r="I38" t="n">
         <v>101.3430263993753</v>
       </c>
       <c r="J38" t="n">
-        <v>514.7226912648269</v>
+        <v>122.9934725572008</v>
       </c>
       <c r="K38" t="n">
-        <v>1306.331369733547</v>
+        <v>914.602151025921</v>
       </c>
       <c r="L38" t="n">
-        <v>2330.365656204736</v>
+        <v>1938.63643749711</v>
       </c>
       <c r="M38" t="n">
-        <v>3439.700226559402</v>
+        <v>2006.62795616228</v>
       </c>
       <c r="N38" t="n">
-        <v>4522.699548033881</v>
+        <v>3089.62727763676</v>
       </c>
       <c r="O38" t="n">
-        <v>4986.581692164659</v>
+        <v>4035.571285502575</v>
       </c>
       <c r="P38" t="n">
-        <v>5035.412003706723</v>
+        <v>4543.563096343988</v>
       </c>
       <c r="Q38" t="n">
         <v>5064.253462764633</v>
@@ -7204,7 +7204,7 @@
         <v>4976.693578051905</v>
       </c>
       <c r="T38" t="n">
-        <v>4758.440045047138</v>
+        <v>4758.440045047137</v>
       </c>
       <c r="U38" t="n">
         <v>4500.13396786195</v>
@@ -7253,25 +7253,25 @@
         <v>101.3430263993753</v>
       </c>
       <c r="J39" t="n">
-        <v>111.1799836800602</v>
+        <v>366.5146455188291</v>
       </c>
       <c r="K39" t="n">
-        <v>140.6930694980543</v>
+        <v>396.0277313368232</v>
       </c>
       <c r="L39" t="n">
-        <v>187.9044684590658</v>
+        <v>443.2391302978347</v>
       </c>
       <c r="M39" t="n">
-        <v>1324.995785989981</v>
+        <v>501.4780971455006</v>
       </c>
       <c r="N39" t="n">
-        <v>1788.015775549125</v>
+        <v>563.5998809489787</v>
       </c>
       <c r="O39" t="n">
-        <v>1841.234354533941</v>
+        <v>616.8184599337945</v>
       </c>
       <c r="P39" t="n">
-        <v>1880.805332737525</v>
+        <v>1394.140287968657</v>
       </c>
       <c r="Q39" t="n">
         <v>1899.145614306336</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3129.085173299287</v>
+        <v>1007.373673612947</v>
       </c>
       <c r="C40" t="n">
-        <v>2957.112610178203</v>
+        <v>835.4011104918632</v>
       </c>
       <c r="D40" t="n">
-        <v>2793.795837304974</v>
+        <v>672.0843376186339</v>
       </c>
       <c r="E40" t="n">
-        <v>2792.560776347669</v>
+        <v>672.0843376186339</v>
       </c>
       <c r="F40" t="n">
-        <v>2620.699002122229</v>
+        <v>500.2225633931943</v>
       </c>
       <c r="G40" t="n">
-        <v>2620.699002122229</v>
+        <v>334.2393993382424</v>
       </c>
       <c r="H40" t="n">
-        <v>2620.699002122229</v>
+        <v>192.8775119963789</v>
       </c>
       <c r="I40" t="n">
-        <v>2620.699002122229</v>
+        <v>101.3430263993753</v>
       </c>
       <c r="J40" t="n">
-        <v>2697.163164474774</v>
+        <v>177.8071887519204</v>
       </c>
       <c r="K40" t="n">
-        <v>2954.868960377896</v>
+        <v>435.5129846550427</v>
       </c>
       <c r="L40" t="n">
-        <v>3349.455636608107</v>
+        <v>830.0996608852539</v>
       </c>
       <c r="M40" t="n">
-        <v>3782.707598336206</v>
+        <v>1263.351622613352</v>
       </c>
       <c r="N40" t="n">
-        <v>4201.265036547093</v>
+        <v>1681.909060824239</v>
       </c>
       <c r="O40" t="n">
-        <v>4594.624195833538</v>
+        <v>2075.268220110684</v>
       </c>
       <c r="P40" t="n">
-        <v>4917.679957227479</v>
+        <v>2398.323981504626</v>
       </c>
       <c r="Q40" t="n">
-        <v>5067.151319968765</v>
+        <v>2547.795344245912</v>
       </c>
       <c r="R40" t="n">
-        <v>5032.424004373536</v>
+        <v>2513.068028650683</v>
       </c>
       <c r="S40" t="n">
-        <v>4867.06064264371</v>
+        <v>2347.704666920856</v>
       </c>
       <c r="T40" t="n">
-        <v>4624.891191741278</v>
+        <v>2105.535216018424</v>
       </c>
       <c r="U40" t="n">
-        <v>4344.721678095263</v>
+        <v>1825.365702372409</v>
       </c>
       <c r="V40" t="n">
-        <v>4063.010210703292</v>
+        <v>1825.365702372409</v>
       </c>
       <c r="W40" t="n">
-        <v>3788.157806875805</v>
+        <v>1550.513298544922</v>
       </c>
       <c r="X40" t="n">
-        <v>3545.593910321611</v>
+        <v>1423.882410635271</v>
       </c>
       <c r="Y40" t="n">
-        <v>3319.251142011352</v>
+        <v>1197.539642325013</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1205.786679737531</v>
+        <v>1321.833232418822</v>
       </c>
       <c r="C41" t="n">
-        <v>778.8859497508308</v>
+        <v>894.932502432122</v>
       </c>
       <c r="D41" t="n">
-        <v>778.8859497508308</v>
+        <v>878.7804398145444</v>
       </c>
       <c r="E41" t="n">
-        <v>352.9090098986884</v>
+        <v>878.7804398145444</v>
       </c>
       <c r="F41" t="n">
-        <v>352.9090098986884</v>
+        <v>453.6562580039446</v>
       </c>
       <c r="G41" t="n">
-        <v>352.9090098986884</v>
+        <v>49.9275983233987</v>
       </c>
       <c r="H41" t="n">
-        <v>61.29191833139168</v>
+        <v>49.9275983233987</v>
       </c>
       <c r="I41" t="n">
         <v>49.9275983233987</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3072631888503</v>
+        <v>71.57804448122418</v>
       </c>
       <c r="K41" t="n">
-        <v>944.6034251723464</v>
+        <v>689.4320737332831</v>
       </c>
       <c r="L41" t="n">
-        <v>1001.083742015962</v>
+        <v>745.9123905768992</v>
       </c>
       <c r="M41" t="n">
-        <v>1069.075260681132</v>
+        <v>813.9039092420694</v>
       </c>
       <c r="N41" t="n">
-        <v>1138.91669706281</v>
+        <v>883.7453456237467</v>
       </c>
       <c r="O41" t="n">
-        <v>1202.699005015348</v>
+        <v>1501.599374875806</v>
       </c>
       <c r="P41" t="n">
-        <v>1820.553034267407</v>
+        <v>2119.453404127864</v>
       </c>
       <c r="Q41" t="n">
         <v>2341.243400688052</v>
@@ -7438,25 +7438,25 @@
         <v>2496.379916169935</v>
       </c>
       <c r="S41" t="n">
-        <v>2405.922174253075</v>
+        <v>2496.379916169935</v>
       </c>
       <c r="T41" t="n">
-        <v>2187.668641248307</v>
+        <v>2496.379916169935</v>
       </c>
       <c r="U41" t="n">
-        <v>1974.996093443534</v>
+        <v>2496.379916169935</v>
       </c>
       <c r="V41" t="n">
-        <v>1617.506678569783</v>
+        <v>2138.890501296184</v>
       </c>
       <c r="W41" t="n">
-        <v>1617.506678569783</v>
+        <v>2138.890501296184</v>
       </c>
       <c r="X41" t="n">
-        <v>1205.786679737531</v>
+        <v>1727.170502463931</v>
       </c>
       <c r="Y41" t="n">
-        <v>1205.786679737531</v>
+        <v>1321.833232418822</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>49.9275983233987</v>
       </c>
       <c r="J42" t="n">
-        <v>59.76455560408359</v>
+        <v>59.7645556040836</v>
       </c>
       <c r="K42" t="n">
-        <v>89.27764142207768</v>
+        <v>677.6185848561425</v>
       </c>
       <c r="L42" t="n">
-        <v>136.4890403830892</v>
+        <v>724.8299838171541</v>
       </c>
       <c r="M42" t="n">
-        <v>194.728007230755</v>
+        <v>783.06895066482</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5820364828139</v>
+        <v>845.1907344682982</v>
       </c>
       <c r="O42" t="n">
-        <v>865.8006154676298</v>
+        <v>898.409313453114</v>
       </c>
       <c r="P42" t="n">
-        <v>1240.831579591969</v>
+        <v>1516.263342705173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1745.836905929648</v>
+        <v>1847.730186230359</v>
       </c>
       <c r="R42" t="n">
         <v>1847.730186230359</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1038.573960471526</v>
+        <v>758.4044468255115</v>
       </c>
       <c r="C43" t="n">
-        <v>866.6013973504423</v>
+        <v>586.4318837044275</v>
       </c>
       <c r="D43" t="n">
-        <v>703.284624477213</v>
+        <v>586.4318837044275</v>
       </c>
       <c r="E43" t="n">
-        <v>537.0764186300665</v>
+        <v>448.8071353172177</v>
       </c>
       <c r="F43" t="n">
-        <v>365.2146444046269</v>
+        <v>448.8071353172177</v>
       </c>
       <c r="G43" t="n">
-        <v>199.2314803496751</v>
+        <v>282.8239712622658</v>
       </c>
       <c r="H43" t="n">
-        <v>57.86959300781149</v>
+        <v>141.4620839204023</v>
       </c>
       <c r="I43" t="n">
         <v>49.9275983233987</v>
@@ -7602,19 +7602,19 @@
         <v>2254.210465267503</v>
       </c>
       <c r="U43" t="n">
-        <v>2254.210465267503</v>
+        <v>1974.040951621488</v>
       </c>
       <c r="V43" t="n">
-        <v>1972.498997875532</v>
+        <v>1692.329484229517</v>
       </c>
       <c r="W43" t="n">
-        <v>1697.646594048045</v>
+        <v>1417.47708040203</v>
       </c>
       <c r="X43" t="n">
-        <v>1455.08269749385</v>
+        <v>1174.913183847835</v>
       </c>
       <c r="Y43" t="n">
-        <v>1228.739929183592</v>
+        <v>948.5704155375772</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1191.738040692395</v>
+        <v>1274.802932133642</v>
       </c>
       <c r="C44" t="n">
-        <v>764.8373107056951</v>
+        <v>847.902202146942</v>
       </c>
       <c r="D44" t="n">
-        <v>341.5446898906954</v>
+        <v>424.6095813319423</v>
       </c>
       <c r="E44" t="n">
-        <v>341.5446898906954</v>
+        <v>424.6095813319423</v>
       </c>
       <c r="F44" t="n">
-        <v>341.5446898906954</v>
+        <v>424.6095813319423</v>
       </c>
       <c r="G44" t="n">
         <v>341.5446898906954</v>
@@ -7663,7 +7663,7 @@
         <v>1275.474564331373</v>
       </c>
       <c r="O44" t="n">
-        <v>1354.937663293099</v>
+        <v>1893.328593583431</v>
       </c>
       <c r="P44" t="n">
         <v>1972.791692545158</v>
@@ -7675,25 +7675,25 @@
         <v>2496.379916169935</v>
       </c>
       <c r="S44" t="n">
-        <v>2405.922174253075</v>
+        <v>2496.379916169935</v>
       </c>
       <c r="T44" t="n">
-        <v>2187.668641248307</v>
+        <v>2496.379916169935</v>
       </c>
       <c r="U44" t="n">
-        <v>1929.362564063119</v>
+        <v>2496.379916169935</v>
       </c>
       <c r="V44" t="n">
-        <v>1571.873149189369</v>
+        <v>2496.379916169935</v>
       </c>
       <c r="W44" t="n">
-        <v>1191.738040692395</v>
+        <v>2099.988566470282</v>
       </c>
       <c r="X44" t="n">
-        <v>1191.738040692395</v>
+        <v>2099.988566470282</v>
       </c>
       <c r="Y44" t="n">
-        <v>1191.738040692395</v>
+        <v>1694.651296425172</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>49.9275983233987</v>
       </c>
       <c r="J45" t="n">
-        <v>59.76455560408359</v>
+        <v>59.7645556040836</v>
       </c>
       <c r="K45" t="n">
-        <v>504.0801020436497</v>
+        <v>677.6185848561425</v>
       </c>
       <c r="L45" t="n">
-        <v>551.2915010046612</v>
+        <v>724.8299838171541</v>
       </c>
       <c r="M45" t="n">
-        <v>609.530467852327</v>
+        <v>783.06895066482</v>
       </c>
       <c r="N45" t="n">
-        <v>671.6522516558051</v>
+        <v>845.1907344682982</v>
       </c>
       <c r="O45" t="n">
-        <v>724.870830640621</v>
+        <v>898.409313453114</v>
       </c>
       <c r="P45" t="n">
-        <v>1342.72485989268</v>
+        <v>1516.263342705173</v>
       </c>
       <c r="Q45" t="n">
         <v>1847.730186230359</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>558.3137695004561</v>
+        <v>758.4044468255115</v>
       </c>
       <c r="C46" t="n">
-        <v>386.3412063793721</v>
+        <v>758.4044468255115</v>
       </c>
       <c r="D46" t="n">
-        <v>382.118968225497</v>
+        <v>595.0876739522822</v>
       </c>
       <c r="E46" t="n">
-        <v>215.9107623783506</v>
+        <v>595.0876739522822</v>
       </c>
       <c r="F46" t="n">
-        <v>215.9107623783506</v>
+        <v>448.8071353172177</v>
       </c>
       <c r="G46" t="n">
-        <v>49.9275983233987</v>
+        <v>282.8239712622658</v>
       </c>
       <c r="H46" t="n">
-        <v>49.9275983233987</v>
+        <v>141.4620839204023</v>
       </c>
       <c r="I46" t="n">
         <v>49.9275983233987</v>
       </c>
       <c r="J46" t="n">
-        <v>126.3917606759439</v>
+        <v>126.3917606759438</v>
       </c>
       <c r="K46" t="n">
-        <v>384.0975565790663</v>
+        <v>384.0975565790661</v>
       </c>
       <c r="L46" t="n">
-        <v>778.6842328092775</v>
+        <v>778.6842328092773</v>
       </c>
       <c r="M46" t="n">
-        <v>1211.936194537376</v>
+        <v>1211.936194537375</v>
       </c>
       <c r="N46" t="n">
         <v>1630.493632748263</v>
@@ -7830,28 +7830,28 @@
         <v>2496.379916169935</v>
       </c>
       <c r="R46" t="n">
-        <v>2461.652600574706</v>
+        <v>2496.379916169935</v>
       </c>
       <c r="S46" t="n">
-        <v>2296.289238844879</v>
+        <v>2496.379916169935</v>
       </c>
       <c r="T46" t="n">
-        <v>2054.119787942448</v>
+        <v>2254.210465267503</v>
       </c>
       <c r="U46" t="n">
-        <v>1773.950274296433</v>
+        <v>1974.040951621488</v>
       </c>
       <c r="V46" t="n">
-        <v>1492.238806904462</v>
+        <v>1692.329484229517</v>
       </c>
       <c r="W46" t="n">
-        <v>1217.386403076975</v>
+        <v>1417.47708040203</v>
       </c>
       <c r="X46" t="n">
-        <v>974.8225065227797</v>
+        <v>1174.913183847835</v>
       </c>
       <c r="Y46" t="n">
-        <v>748.4797382125217</v>
+        <v>948.5704155375772</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>452.4011488286621</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8057,28 +8057,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>549.852899948183</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8218,7 +8218,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8227,10 +8227,10 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O5" t="n">
-        <v>181.6704383876113</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
@@ -8294,28 +8294,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>549.852899948183</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>181.3705437721211</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8455,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>450.7747902674474</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>110.3411813754879</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>175.9092261537768</v>
       </c>
       <c r="K9" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>184.1630016116738</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>582.9905187330294</v>
       </c>
       <c r="L11" t="n">
-        <v>567.0441539479222</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>555.4166773604936</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>553.5480736064461</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>390.0953863328596</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>436.8341923650833</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>5.040249740197392</v>
+        <v>15.89761889745055</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>437.8489386521759</v>
+        <v>594.2837812465301</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>565.2677398024173</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>3.598202004237677</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,19 +8935,19 @@
         <v>567.0441539479222</v>
       </c>
       <c r="M14" t="n">
-        <v>555.4166773604936</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>553.5480736064461</v>
+        <v>553.548073606446</v>
       </c>
       <c r="O14" t="n">
-        <v>390.0953863328596</v>
+        <v>559.6684053530511</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>385.8436583403019</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>5.040249740197392</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>576.4066972636842</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>561.345702473314</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>61.89210932292498</v>
+        <v>297.4158805244898</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>584.1242939883588</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>3.598202004237677</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>184.7198182391096</v>
       </c>
       <c r="O17" t="n">
-        <v>799.8273281675408</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>5.040249740197392</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>586.4871518162921</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>404.9476825814803</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>3.598202004237677</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>338.4962407418881</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>736.3662783612428</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>5.040249740197392</v>
+        <v>5.040249740197387</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>605.1411504037834</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>373.0363757925633</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>3.598202004237677</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>184.7198182391095</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>799.8273281675408</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>5.040249740197392</v>
+        <v>5.040249740197387</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>281.3455184909061</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>373.0363757925649</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>3.598202004237677</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,16 +9886,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>177.7069965234844</v>
       </c>
       <c r="O26" t="n">
-        <v>799.8273281675408</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9950,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>5.040249740197392</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>13.7737665027543</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>27.72349317534024</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>667.2551694292413</v>
       </c>
       <c r="L29" t="n">
-        <v>394.7563562118496</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10129,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>5.040249740197392</v>
+        <v>12.01240427086788</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>454.4416304424708</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.598202004237677</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>667.255169429242</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10363,10 +10363,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>404.1412486648887</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>5.040249740197392</v>
+        <v>5.040249740197387</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>257.9137998371402</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>373.0363757925649</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>3.598202004237677</v>
+        <v>3.59820200423767</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>667.2551694292413</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10597,7 +10597,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>932.1467071367591</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>5.040249740197392</v>
+        <v>5.040249740197387</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>618.848654609434</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>580.7958544504895</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>130.6459985295932</v>
       </c>
       <c r="R36" t="n">
-        <v>3.598202004237677</v>
+        <v>3.59820200423767</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,19 +10831,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>404.1412486648888</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>463.799494241767</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>5.040249740197392</v>
+        <v>5.040249740197387</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>257.9137998371403</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>404.9476825814803</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>3.598202004237677</v>
+        <v>3.59820200423767</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>445.0532790678145</v>
+        <v>582.9905187330294</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>559.6684053530511</v>
       </c>
       <c r="P41" t="n">
         <v>574.7714320302982</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>194.8975126285636</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>5.040249740197392</v>
+        <v>5.040249740197387</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>594.2837812465301</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>561.345702473314</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>338.8484706270261</v>
+        <v>584.1242939883588</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>316.289456521591</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>3.59820200423767</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>15.83918283756363</v>
+        <v>559.6684053530511</v>
       </c>
       <c r="P44" t="n">
-        <v>574.7714320302982</v>
+        <v>30.94220951481091</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>5.040249740197392</v>
+        <v>5.040249740197387</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>418.9923844662344</v>
+        <v>594.2837812465301</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>584.1242939883588</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>316.289456521591</v>
       </c>
       <c r="R45" t="n">
-        <v>3.598202004237677</v>
+        <v>3.59820200423767</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>288.7009206516237</v>
       </c>
       <c r="I11" t="n">
-        <v>11.25067680791306</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>255.7230164133354</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>8.42947104438997</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.2275110649997</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.9482684684449</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>163.7097281125284</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.7477563934074</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>154.7566705588875</v>
+        <v>277.3678185095547</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>140.8980680868247</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>399.6913730837404</v>
@@ -23515,7 +23515,7 @@
         <v>288.7009206516237</v>
       </c>
       <c r="I14" t="n">
-        <v>11.25067680791306</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>89.55316449769138</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.0709976747202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7230164133354</v>
+        <v>128.4704365286804</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>85.54641256427135</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.3233324144024</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>34.38004243927617</v>
       </c>
       <c r="S16" t="n">
-        <v>163.7097281125284</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.7477563934074</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>120.3766281196114</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>189.3676237279604</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1620068071672</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.9482684684449</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>163.7097281125284</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3678185095547</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>117.1366084427413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>129.556975303541</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.9482684684449</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>90.6191407410335</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>163.7097281125284</v>
       </c>
       <c r="T22" t="n">
-        <v>239.7477563934074</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>120.3766281196118</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>86.43912496869663</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>132.9057340519305</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.9482684684449</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>90.6191407410335</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>138.7255581207133</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.3233324144024</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>90.6191407410335</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>145.8705054127235</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>34.38004243927617</v>
       </c>
       <c r="S31" t="n">
-        <v>163.7097281125284</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>239.7477563934074</v>
       </c>
       <c r="U31" t="n">
-        <v>120.3766281196118</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>122.4027510876434</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>135.6585716894205</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -25083,7 +25083,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>38.01340340550939</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>90.6191407410335</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>15.89888490651492</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>163.323413440943</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.3233324144024</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>139.9482684684449</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>34.38004243927617</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3678185095547</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>163.323413440943</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.3233324144024</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9482684684449</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>90.6191407410335</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>114.7736785580978</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>403.0691526154479</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>399.6913730837404</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>288.7009206516237</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>11.25067680791305</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>89.55316449769138</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.0709976747202</v>
       </c>
       <c r="U41" t="n">
-        <v>45.17719408661026</v>
+        <v>255.7230164133354</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>28.29762288533726</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>82.75656600346484</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3678185095547</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>399.6913730837404</v>
+        <v>317.457130556906</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>11.25067680791306</v>
+        <v>11.25067680791305</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>89.55316449769138</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.0709976747202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7230164133354</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>16.09367879065258</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>157.5035893721607</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>25.32542323447129</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9482684684449</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>90.6191407410335</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>34.38004243927617</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>163.7097281125284</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739777.9453958392</v>
+        <v>739777.9453958391</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>476013.1978971144</v>
+        <v>476013.1978971146</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>349465.6008066979</v>
+      </c>
+      <c r="C2" t="n">
+        <v>349465.6008066979</v>
+      </c>
+      <c r="D2" t="n">
         <v>349465.6008066978</v>
       </c>
-      <c r="C2" t="n">
-        <v>349465.600806698</v>
-      </c>
-      <c r="D2" t="n">
-        <v>349465.6008066979</v>
-      </c>
       <c r="E2" t="n">
-        <v>222306.1199872462</v>
+        <v>222306.1199872461</v>
       </c>
       <c r="F2" t="n">
-        <v>222306.1199872462</v>
+        <v>222306.1199872461</v>
       </c>
       <c r="G2" t="n">
         <v>341427.3169737647</v>
@@ -26334,28 +26334,28 @@
         <v>341427.3169737646</v>
       </c>
       <c r="I2" t="n">
-        <v>341427.3169737645</v>
+        <v>341427.3169737648</v>
       </c>
       <c r="J2" t="n">
-        <v>341427.3169737646</v>
+        <v>341427.3169737649</v>
       </c>
       <c r="K2" t="n">
-        <v>341427.3169737645</v>
+        <v>341427.3169737647</v>
       </c>
       <c r="L2" t="n">
-        <v>341427.3169737644</v>
+        <v>341427.3169737649</v>
       </c>
       <c r="M2" t="n">
         <v>341427.3169737646</v>
       </c>
       <c r="N2" t="n">
-        <v>341427.3169737647</v>
+        <v>341427.3169737646</v>
       </c>
       <c r="O2" t="n">
-        <v>222306.1199872462</v>
+        <v>222306.1199872461</v>
       </c>
       <c r="P2" t="n">
-        <v>222306.1199872462</v>
+        <v>222306.1199872461</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>141030.621092216</v>
+        <v>141030.6210922161</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>176152.4700525507</v>
+        <v>176152.4700525506</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>50425.98199709879</v>
+        <v>50425.98199709877</v>
       </c>
       <c r="F4" t="n">
-        <v>50425.98199709878</v>
+        <v>50425.98199709877</v>
       </c>
       <c r="G4" t="n">
-        <v>86178.95153782672</v>
+        <v>86178.95153782671</v>
       </c>
       <c r="H4" t="n">
-        <v>86178.95153782672</v>
+        <v>86178.95153782671</v>
       </c>
       <c r="I4" t="n">
-        <v>86178.95153782672</v>
+        <v>86178.95153782671</v>
       </c>
       <c r="J4" t="n">
         <v>86178.95153782671</v>
       </c>
       <c r="K4" t="n">
-        <v>86178.95153782672</v>
+        <v>86178.95153782671</v>
       </c>
       <c r="L4" t="n">
         <v>86178.95153782672</v>
@@ -26453,7 +26453,7 @@
         <v>86178.95153782671</v>
       </c>
       <c r="N4" t="n">
-        <v>86178.95153782672</v>
+        <v>86178.95153782671</v>
       </c>
       <c r="O4" t="n">
         <v>50425.98199709878</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-104251.7756348091</v>
+        <v>-104251.775634809</v>
       </c>
       <c r="C6" t="n">
-        <v>82152.9577799284</v>
+        <v>82152.95777992823</v>
       </c>
       <c r="D6" t="n">
-        <v>82152.95777992829</v>
+        <v>82152.95777992817</v>
       </c>
       <c r="E6" t="n">
-        <v>-10372.4186179474</v>
+        <v>-10902.24978802861</v>
       </c>
       <c r="F6" t="n">
-        <v>130658.2024742687</v>
+        <v>130128.3713041875</v>
       </c>
       <c r="G6" t="n">
-        <v>-1201.765470233717</v>
+        <v>-1235.258319537562</v>
       </c>
       <c r="H6" t="n">
-        <v>174950.7045823168</v>
+        <v>174917.211733013</v>
       </c>
       <c r="I6" t="n">
-        <v>174950.7045823168</v>
+        <v>174917.2117330132</v>
       </c>
       <c r="J6" t="n">
-        <v>29417.03464750043</v>
+        <v>29383.54179819682</v>
       </c>
       <c r="K6" t="n">
-        <v>174950.7045823168</v>
+        <v>174917.2117330131</v>
       </c>
       <c r="L6" t="n">
-        <v>174950.7045823167</v>
+        <v>174917.2117330133</v>
       </c>
       <c r="M6" t="n">
-        <v>158037.9353646723</v>
+        <v>158004.4425153684</v>
       </c>
       <c r="N6" t="n">
-        <v>174950.704582317</v>
+        <v>174917.211733013</v>
       </c>
       <c r="O6" t="n">
-        <v>130658.2024742687</v>
+        <v>130128.3713041875</v>
       </c>
       <c r="P6" t="n">
-        <v>130658.2024742686</v>
+        <v>130128.3713041875</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150.3193022979715</v>
+        <v>150.3193022979716</v>
       </c>
       <c r="F3" t="n">
-        <v>150.3193022979715</v>
+        <v>150.3193022979716</v>
       </c>
       <c r="G3" t="n">
-        <v>150.3193022979715</v>
+        <v>150.3193022979716</v>
       </c>
       <c r="H3" t="n">
-        <v>150.3193022979715</v>
+        <v>150.3193022979716</v>
       </c>
       <c r="I3" t="n">
-        <v>150.3193022979715</v>
+        <v>150.3193022979716</v>
       </c>
       <c r="J3" t="n">
-        <v>150.3193022979715</v>
+        <v>150.3193022979716</v>
       </c>
       <c r="K3" t="n">
-        <v>150.3193022979715</v>
+        <v>150.3193022979716</v>
       </c>
       <c r="L3" t="n">
-        <v>150.3193022979715</v>
+        <v>150.3193022979716</v>
       </c>
       <c r="M3" t="n">
-        <v>150.3193022979715</v>
+        <v>150.3193022979716</v>
       </c>
       <c r="N3" t="n">
-        <v>150.3193022979715</v>
+        <v>150.3193022979716</v>
       </c>
       <c r="O3" t="n">
-        <v>150.3193022979715</v>
+        <v>150.3193022979716</v>
       </c>
       <c r="P3" t="n">
-        <v>150.3193022979715</v>
+        <v>150.3193022979716</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150.3193022979715</v>
+        <v>150.3193022979716</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>67.86716592688954</v>
+        <v>67.86716592688956</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>642.6928509497077</v>
+        <v>642.6928509497076</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>67.86716592688965</v>
+        <v>67.86716592688967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>67.86716592688954</v>
+        <v>67.86716592688956</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>642.6928509497077</v>
+        <v>642.6928509497076</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>309.599860719592</v>
       </c>
       <c r="D2" t="n">
-        <v>240.8241420779644</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -27444,10 +27444,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>99.48085225679654</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>54.09582208342329</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>88.37640295400337</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27681,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>350.504879224449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>153.4739695386593</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>59.91387765085312</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>261.0072389248296</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27912,16 +27912,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>299.5201544024732</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.0981677402031</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -28031,7 +28031,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6042987027054126</v>
+        <v>0.6042987027054129</v>
       </c>
       <c r="H11" t="n">
-        <v>6.188774089081809</v>
+        <v>6.188774089081812</v>
       </c>
       <c r="I11" t="n">
         <v>23.29722573605045</v>
       </c>
       <c r="J11" t="n">
-        <v>51.28909701874357</v>
+        <v>51.28909701874358</v>
       </c>
       <c r="K11" t="n">
-        <v>76.86906110426369</v>
+        <v>76.86906110426374</v>
       </c>
       <c r="L11" t="n">
-        <v>95.36286752718449</v>
+        <v>95.36286752718453</v>
       </c>
       <c r="M11" t="n">
         <v>106.1095645814219</v>
       </c>
       <c r="N11" t="n">
-        <v>107.8265282704836</v>
+        <v>107.8265282704837</v>
       </c>
       <c r="O11" t="n">
         <v>101.8175330454567</v>
       </c>
       <c r="P11" t="n">
-        <v>86.89890882241679</v>
+        <v>86.89890882241683</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.25746153177919</v>
+        <v>65.2574615317792</v>
       </c>
       <c r="R11" t="n">
-        <v>37.95977838381891</v>
+        <v>37.95977838381893</v>
       </c>
       <c r="S11" t="n">
         <v>13.77045668789961</v>
       </c>
       <c r="T11" t="n">
-        <v>2.645317571092945</v>
+        <v>2.645317571092946</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04834389621643301</v>
+        <v>0.04834389621643302</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.323328310603184</v>
+        <v>0.3233283106031842</v>
       </c>
       <c r="H12" t="n">
-        <v>3.122670789246541</v>
+        <v>3.122670789246542</v>
       </c>
       <c r="I12" t="n">
         <v>11.13213700980261</v>
       </c>
       <c r="J12" t="n">
-        <v>30.54743481887363</v>
+        <v>30.54743481887364</v>
       </c>
       <c r="K12" t="n">
-        <v>52.21043162928696</v>
+        <v>52.21043162928698</v>
       </c>
       <c r="L12" t="n">
-        <v>70.20336849302906</v>
+        <v>70.20336849302909</v>
       </c>
       <c r="M12" t="n">
-        <v>81.92401975239447</v>
+        <v>81.9240197523945</v>
       </c>
       <c r="N12" t="n">
-        <v>84.09230478271145</v>
+        <v>84.09230478271148</v>
       </c>
       <c r="O12" t="n">
-        <v>76.92803011092511</v>
+        <v>76.92803011092514</v>
       </c>
       <c r="P12" t="n">
-        <v>61.74152625895363</v>
+        <v>61.74152625895366</v>
       </c>
       <c r="Q12" t="n">
-        <v>41.27257522717135</v>
+        <v>41.27257522717137</v>
       </c>
       <c r="R12" t="n">
         <v>20.07471738990647</v>
       </c>
       <c r="S12" t="n">
-        <v>6.005681558791594</v>
+        <v>6.005681558791596</v>
       </c>
       <c r="T12" t="n">
         <v>1.303239988790904</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02127159938178843</v>
+        <v>0.02127159938178844</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,46 +31910,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2710675943078175</v>
+        <v>0.2710675943078176</v>
       </c>
       <c r="H13" t="n">
-        <v>2.410037338482233</v>
+        <v>2.410037338482234</v>
       </c>
       <c r="I13" t="n">
-        <v>8.151741836093278</v>
+        <v>8.151741836093279</v>
       </c>
       <c r="J13" t="n">
-        <v>19.16447891756269</v>
+        <v>19.1644789175627</v>
       </c>
       <c r="K13" t="n">
-        <v>31.4931259568537</v>
+        <v>31.49312595685371</v>
       </c>
       <c r="L13" t="n">
-        <v>40.30035852100043</v>
+        <v>40.30035852100045</v>
       </c>
       <c r="M13" t="n">
-        <v>42.49107753317905</v>
+        <v>42.49107753317907</v>
       </c>
       <c r="N13" t="n">
-        <v>41.48073468166813</v>
+        <v>41.48073468166815</v>
       </c>
       <c r="O13" t="n">
-        <v>38.31417232998134</v>
+        <v>38.31417232998135</v>
       </c>
       <c r="P13" t="n">
-        <v>32.78439340610183</v>
+        <v>32.78439340610185</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.6982146469937</v>
+        <v>22.69821464699371</v>
       </c>
       <c r="R13" t="n">
         <v>12.18818474042241</v>
       </c>
       <c r="S13" t="n">
-        <v>4.723968893528053</v>
+        <v>4.723968893528055</v>
       </c>
       <c r="T13" t="n">
-        <v>1.158197902951583</v>
+        <v>1.158197902951584</v>
       </c>
       <c r="U13" t="n">
         <v>0.01478550514406279</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6042987027054126</v>
+        <v>0.6042987027054129</v>
       </c>
       <c r="H14" t="n">
-        <v>6.188774089081809</v>
+        <v>6.188774089081812</v>
       </c>
       <c r="I14" t="n">
         <v>23.29722573605045</v>
       </c>
       <c r="J14" t="n">
-        <v>51.28909701874357</v>
+        <v>51.28909701874358</v>
       </c>
       <c r="K14" t="n">
-        <v>76.86906110426369</v>
+        <v>76.86906110426374</v>
       </c>
       <c r="L14" t="n">
-        <v>95.36286752718449</v>
+        <v>95.36286752718453</v>
       </c>
       <c r="M14" t="n">
         <v>106.1095645814219</v>
       </c>
       <c r="N14" t="n">
-        <v>107.8265282704836</v>
+        <v>107.8265282704837</v>
       </c>
       <c r="O14" t="n">
         <v>101.8175330454567</v>
       </c>
       <c r="P14" t="n">
-        <v>86.89890882241679</v>
+        <v>86.89890882241683</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.25746153177919</v>
+        <v>65.2574615317792</v>
       </c>
       <c r="R14" t="n">
-        <v>37.95977838381891</v>
+        <v>37.95977838381893</v>
       </c>
       <c r="S14" t="n">
         <v>13.77045668789961</v>
       </c>
       <c r="T14" t="n">
-        <v>2.645317571092945</v>
+        <v>2.645317571092946</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04834389621643301</v>
+        <v>0.04834389621643302</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.323328310603184</v>
+        <v>0.3233283106031842</v>
       </c>
       <c r="H15" t="n">
-        <v>3.122670789246541</v>
+        <v>3.122670789246542</v>
       </c>
       <c r="I15" t="n">
         <v>11.13213700980261</v>
       </c>
       <c r="J15" t="n">
-        <v>30.54743481887363</v>
+        <v>30.54743481887364</v>
       </c>
       <c r="K15" t="n">
-        <v>52.21043162928696</v>
+        <v>52.21043162928698</v>
       </c>
       <c r="L15" t="n">
-        <v>70.20336849302906</v>
+        <v>70.20336849302909</v>
       </c>
       <c r="M15" t="n">
-        <v>81.92401975239447</v>
+        <v>81.9240197523945</v>
       </c>
       <c r="N15" t="n">
-        <v>84.09230478271145</v>
+        <v>84.09230478271148</v>
       </c>
       <c r="O15" t="n">
-        <v>76.92803011092511</v>
+        <v>76.92803011092514</v>
       </c>
       <c r="P15" t="n">
-        <v>61.74152625895363</v>
+        <v>61.74152625895366</v>
       </c>
       <c r="Q15" t="n">
-        <v>41.27257522717135</v>
+        <v>41.27257522717137</v>
       </c>
       <c r="R15" t="n">
         <v>20.07471738990647</v>
       </c>
       <c r="S15" t="n">
-        <v>6.005681558791594</v>
+        <v>6.005681558791596</v>
       </c>
       <c r="T15" t="n">
         <v>1.303239988790904</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02127159938178843</v>
+        <v>0.02127159938178844</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2710675943078175</v>
+        <v>0.2710675943078176</v>
       </c>
       <c r="H16" t="n">
-        <v>2.410037338482233</v>
+        <v>2.410037338482234</v>
       </c>
       <c r="I16" t="n">
-        <v>8.151741836093278</v>
+        <v>8.151741836093279</v>
       </c>
       <c r="J16" t="n">
-        <v>19.16447891756269</v>
+        <v>19.1644789175627</v>
       </c>
       <c r="K16" t="n">
-        <v>31.4931259568537</v>
+        <v>31.49312595685371</v>
       </c>
       <c r="L16" t="n">
-        <v>40.30035852100043</v>
+        <v>40.30035852100045</v>
       </c>
       <c r="M16" t="n">
-        <v>42.49107753317905</v>
+        <v>42.49107753317907</v>
       </c>
       <c r="N16" t="n">
-        <v>41.48073468166813</v>
+        <v>41.48073468166815</v>
       </c>
       <c r="O16" t="n">
-        <v>38.31417232998134</v>
+        <v>38.31417232998135</v>
       </c>
       <c r="P16" t="n">
-        <v>32.78439340610183</v>
+        <v>32.78439340610185</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.6982146469937</v>
+        <v>22.69821464699371</v>
       </c>
       <c r="R16" t="n">
         <v>12.18818474042241</v>
       </c>
       <c r="S16" t="n">
-        <v>4.723968893528053</v>
+        <v>4.723968893528055</v>
       </c>
       <c r="T16" t="n">
-        <v>1.158197902951583</v>
+        <v>1.158197902951584</v>
       </c>
       <c r="U16" t="n">
         <v>0.01478550514406279</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6042987027054126</v>
+        <v>0.6042987027054129</v>
       </c>
       <c r="H17" t="n">
-        <v>6.188774089081809</v>
+        <v>6.188774089081812</v>
       </c>
       <c r="I17" t="n">
         <v>23.29722573605045</v>
       </c>
       <c r="J17" t="n">
-        <v>51.28909701874357</v>
+        <v>51.28909701874358</v>
       </c>
       <c r="K17" t="n">
-        <v>76.86906110426369</v>
+        <v>76.86906110426374</v>
       </c>
       <c r="L17" t="n">
-        <v>95.36286752718449</v>
+        <v>95.36286752718453</v>
       </c>
       <c r="M17" t="n">
         <v>106.1095645814219</v>
       </c>
       <c r="N17" t="n">
-        <v>107.8265282704836</v>
+        <v>107.8265282704837</v>
       </c>
       <c r="O17" t="n">
         <v>101.8175330454567</v>
       </c>
       <c r="P17" t="n">
-        <v>86.89890882241679</v>
+        <v>86.89890882241683</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.25746153177919</v>
+        <v>65.2574615317792</v>
       </c>
       <c r="R17" t="n">
-        <v>37.95977838381891</v>
+        <v>37.95977838381893</v>
       </c>
       <c r="S17" t="n">
         <v>13.77045668789961</v>
       </c>
       <c r="T17" t="n">
-        <v>2.645317571092945</v>
+        <v>2.645317571092946</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04834389621643301</v>
+        <v>0.04834389621643302</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.323328310603184</v>
+        <v>0.3233283106031842</v>
       </c>
       <c r="H18" t="n">
-        <v>3.122670789246541</v>
+        <v>3.122670789246542</v>
       </c>
       <c r="I18" t="n">
         <v>11.13213700980261</v>
       </c>
       <c r="J18" t="n">
-        <v>30.54743481887363</v>
+        <v>30.54743481887364</v>
       </c>
       <c r="K18" t="n">
-        <v>52.21043162928696</v>
+        <v>52.21043162928698</v>
       </c>
       <c r="L18" t="n">
-        <v>70.20336849302906</v>
+        <v>70.20336849302909</v>
       </c>
       <c r="M18" t="n">
-        <v>81.92401975239447</v>
+        <v>81.9240197523945</v>
       </c>
       <c r="N18" t="n">
-        <v>84.09230478271145</v>
+        <v>84.09230478271148</v>
       </c>
       <c r="O18" t="n">
-        <v>76.92803011092511</v>
+        <v>76.92803011092514</v>
       </c>
       <c r="P18" t="n">
-        <v>61.74152625895363</v>
+        <v>61.74152625895366</v>
       </c>
       <c r="Q18" t="n">
-        <v>41.27257522717135</v>
+        <v>41.27257522717137</v>
       </c>
       <c r="R18" t="n">
         <v>20.07471738990647</v>
       </c>
       <c r="S18" t="n">
-        <v>6.005681558791594</v>
+        <v>6.005681558791596</v>
       </c>
       <c r="T18" t="n">
         <v>1.303239988790904</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02127159938178843</v>
+        <v>0.02127159938178844</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,46 +32384,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2710675943078175</v>
+        <v>0.2710675943078176</v>
       </c>
       <c r="H19" t="n">
-        <v>2.410037338482233</v>
+        <v>2.410037338482234</v>
       </c>
       <c r="I19" t="n">
-        <v>8.151741836093278</v>
+        <v>8.151741836093279</v>
       </c>
       <c r="J19" t="n">
-        <v>19.16447891756269</v>
+        <v>19.1644789175627</v>
       </c>
       <c r="K19" t="n">
-        <v>31.4931259568537</v>
+        <v>31.49312595685371</v>
       </c>
       <c r="L19" t="n">
-        <v>40.30035852100043</v>
+        <v>40.30035852100045</v>
       </c>
       <c r="M19" t="n">
-        <v>42.49107753317905</v>
+        <v>42.49107753317907</v>
       </c>
       <c r="N19" t="n">
-        <v>41.48073468166813</v>
+        <v>41.48073468166815</v>
       </c>
       <c r="O19" t="n">
-        <v>38.31417232998134</v>
+        <v>38.31417232998135</v>
       </c>
       <c r="P19" t="n">
-        <v>32.78439340610183</v>
+        <v>32.78439340610185</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.6982146469937</v>
+        <v>22.69821464699371</v>
       </c>
       <c r="R19" t="n">
         <v>12.18818474042241</v>
       </c>
       <c r="S19" t="n">
-        <v>4.723968893528053</v>
+        <v>4.723968893528055</v>
       </c>
       <c r="T19" t="n">
-        <v>1.158197902951583</v>
+        <v>1.158197902951584</v>
       </c>
       <c r="U19" t="n">
         <v>0.01478550514406279</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6042987027054126</v>
+        <v>0.6042987027054129</v>
       </c>
       <c r="H20" t="n">
-        <v>6.188774089081809</v>
+        <v>6.188774089081812</v>
       </c>
       <c r="I20" t="n">
         <v>23.29722573605045</v>
       </c>
       <c r="J20" t="n">
-        <v>51.28909701874357</v>
+        <v>51.28909701874358</v>
       </c>
       <c r="K20" t="n">
-        <v>76.86906110426369</v>
+        <v>76.86906110426374</v>
       </c>
       <c r="L20" t="n">
-        <v>95.36286752718449</v>
+        <v>95.36286752718453</v>
       </c>
       <c r="M20" t="n">
         <v>106.1095645814219</v>
       </c>
       <c r="N20" t="n">
-        <v>107.8265282704836</v>
+        <v>107.8265282704837</v>
       </c>
       <c r="O20" t="n">
         <v>101.8175330454567</v>
       </c>
       <c r="P20" t="n">
-        <v>86.89890882241679</v>
+        <v>86.89890882241683</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.25746153177919</v>
+        <v>65.2574615317792</v>
       </c>
       <c r="R20" t="n">
-        <v>37.95977838381891</v>
+        <v>37.95977838381893</v>
       </c>
       <c r="S20" t="n">
         <v>13.77045668789961</v>
       </c>
       <c r="T20" t="n">
-        <v>2.645317571092945</v>
+        <v>2.645317571092946</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04834389621643301</v>
+        <v>0.04834389621643302</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.323328310603184</v>
+        <v>0.3233283106031842</v>
       </c>
       <c r="H21" t="n">
-        <v>3.122670789246541</v>
+        <v>3.122670789246542</v>
       </c>
       <c r="I21" t="n">
         <v>11.13213700980261</v>
       </c>
       <c r="J21" t="n">
-        <v>30.54743481887363</v>
+        <v>30.54743481887364</v>
       </c>
       <c r="K21" t="n">
-        <v>52.21043162928696</v>
+        <v>52.21043162928698</v>
       </c>
       <c r="L21" t="n">
-        <v>70.20336849302906</v>
+        <v>70.20336849302909</v>
       </c>
       <c r="M21" t="n">
-        <v>81.92401975239447</v>
+        <v>81.9240197523945</v>
       </c>
       <c r="N21" t="n">
-        <v>84.09230478271145</v>
+        <v>84.09230478271148</v>
       </c>
       <c r="O21" t="n">
-        <v>76.92803011092511</v>
+        <v>76.92803011092514</v>
       </c>
       <c r="P21" t="n">
-        <v>61.74152625895363</v>
+        <v>61.74152625895366</v>
       </c>
       <c r="Q21" t="n">
-        <v>41.27257522717135</v>
+        <v>41.27257522717137</v>
       </c>
       <c r="R21" t="n">
         <v>20.07471738990647</v>
       </c>
       <c r="S21" t="n">
-        <v>6.005681558791594</v>
+        <v>6.005681558791596</v>
       </c>
       <c r="T21" t="n">
         <v>1.303239988790904</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02127159938178843</v>
+        <v>0.02127159938178844</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2710675943078175</v>
+        <v>0.2710675943078176</v>
       </c>
       <c r="H22" t="n">
-        <v>2.410037338482233</v>
+        <v>2.410037338482234</v>
       </c>
       <c r="I22" t="n">
-        <v>8.151741836093278</v>
+        <v>8.151741836093279</v>
       </c>
       <c r="J22" t="n">
-        <v>19.16447891756269</v>
+        <v>19.1644789175627</v>
       </c>
       <c r="K22" t="n">
-        <v>31.4931259568537</v>
+        <v>31.49312595685371</v>
       </c>
       <c r="L22" t="n">
-        <v>40.30035852100043</v>
+        <v>40.30035852100045</v>
       </c>
       <c r="M22" t="n">
-        <v>42.49107753317905</v>
+        <v>42.49107753317907</v>
       </c>
       <c r="N22" t="n">
-        <v>41.48073468166813</v>
+        <v>41.48073468166815</v>
       </c>
       <c r="O22" t="n">
-        <v>38.31417232998134</v>
+        <v>38.31417232998135</v>
       </c>
       <c r="P22" t="n">
-        <v>32.78439340610183</v>
+        <v>32.78439340610185</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.6982146469937</v>
+        <v>22.69821464699371</v>
       </c>
       <c r="R22" t="n">
         <v>12.18818474042241</v>
       </c>
       <c r="S22" t="n">
-        <v>4.723968893528053</v>
+        <v>4.723968893528055</v>
       </c>
       <c r="T22" t="n">
-        <v>1.158197902951583</v>
+        <v>1.158197902951584</v>
       </c>
       <c r="U22" t="n">
         <v>0.01478550514406279</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6042987027054126</v>
+        <v>0.6042987027054129</v>
       </c>
       <c r="H23" t="n">
-        <v>6.188774089081809</v>
+        <v>6.188774089081812</v>
       </c>
       <c r="I23" t="n">
         <v>23.29722573605045</v>
       </c>
       <c r="J23" t="n">
-        <v>51.28909701874357</v>
+        <v>51.28909701874358</v>
       </c>
       <c r="K23" t="n">
-        <v>76.86906110426369</v>
+        <v>76.86906110426374</v>
       </c>
       <c r="L23" t="n">
-        <v>95.36286752718449</v>
+        <v>95.36286752718453</v>
       </c>
       <c r="M23" t="n">
         <v>106.1095645814219</v>
       </c>
       <c r="N23" t="n">
-        <v>107.8265282704836</v>
+        <v>107.8265282704837</v>
       </c>
       <c r="O23" t="n">
         <v>101.8175330454567</v>
       </c>
       <c r="P23" t="n">
-        <v>86.89890882241679</v>
+        <v>86.89890882241683</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.25746153177919</v>
+        <v>65.2574615317792</v>
       </c>
       <c r="R23" t="n">
-        <v>37.95977838381891</v>
+        <v>37.95977838381893</v>
       </c>
       <c r="S23" t="n">
         <v>13.77045668789961</v>
       </c>
       <c r="T23" t="n">
-        <v>2.645317571092945</v>
+        <v>2.645317571092946</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04834389621643301</v>
+        <v>0.04834389621643302</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.323328310603184</v>
+        <v>0.3233283106031842</v>
       </c>
       <c r="H24" t="n">
-        <v>3.122670789246541</v>
+        <v>3.122670789246542</v>
       </c>
       <c r="I24" t="n">
         <v>11.13213700980261</v>
       </c>
       <c r="J24" t="n">
-        <v>30.54743481887363</v>
+        <v>30.54743481887364</v>
       </c>
       <c r="K24" t="n">
-        <v>52.21043162928696</v>
+        <v>52.21043162928698</v>
       </c>
       <c r="L24" t="n">
-        <v>70.20336849302906</v>
+        <v>70.20336849302909</v>
       </c>
       <c r="M24" t="n">
-        <v>81.92401975239447</v>
+        <v>81.9240197523945</v>
       </c>
       <c r="N24" t="n">
-        <v>84.09230478271145</v>
+        <v>84.09230478271148</v>
       </c>
       <c r="O24" t="n">
-        <v>76.92803011092511</v>
+        <v>76.92803011092514</v>
       </c>
       <c r="P24" t="n">
-        <v>61.74152625895363</v>
+        <v>61.74152625895366</v>
       </c>
       <c r="Q24" t="n">
-        <v>41.27257522717135</v>
+        <v>41.27257522717137</v>
       </c>
       <c r="R24" t="n">
         <v>20.07471738990647</v>
       </c>
       <c r="S24" t="n">
-        <v>6.005681558791594</v>
+        <v>6.005681558791596</v>
       </c>
       <c r="T24" t="n">
         <v>1.303239988790904</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02127159938178843</v>
+        <v>0.02127159938178844</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,46 +32858,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2710675943078175</v>
+        <v>0.2710675943078176</v>
       </c>
       <c r="H25" t="n">
-        <v>2.410037338482233</v>
+        <v>2.410037338482234</v>
       </c>
       <c r="I25" t="n">
-        <v>8.151741836093278</v>
+        <v>8.151741836093279</v>
       </c>
       <c r="J25" t="n">
-        <v>19.16447891756269</v>
+        <v>19.1644789175627</v>
       </c>
       <c r="K25" t="n">
-        <v>31.4931259568537</v>
+        <v>31.49312595685371</v>
       </c>
       <c r="L25" t="n">
-        <v>40.30035852100043</v>
+        <v>40.30035852100045</v>
       </c>
       <c r="M25" t="n">
-        <v>42.49107753317905</v>
+        <v>42.49107753317907</v>
       </c>
       <c r="N25" t="n">
-        <v>41.48073468166813</v>
+        <v>41.48073468166815</v>
       </c>
       <c r="O25" t="n">
-        <v>38.31417232998134</v>
+        <v>38.31417232998135</v>
       </c>
       <c r="P25" t="n">
-        <v>32.78439340610183</v>
+        <v>32.78439340610185</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.6982146469937</v>
+        <v>22.69821464699371</v>
       </c>
       <c r="R25" t="n">
         <v>12.18818474042241</v>
       </c>
       <c r="S25" t="n">
-        <v>4.723968893528053</v>
+        <v>4.723968893528055</v>
       </c>
       <c r="T25" t="n">
-        <v>1.158197902951583</v>
+        <v>1.158197902951584</v>
       </c>
       <c r="U25" t="n">
         <v>0.01478550514406279</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6042987027054126</v>
+        <v>0.6042987027054129</v>
       </c>
       <c r="H26" t="n">
-        <v>6.188774089081809</v>
+        <v>6.188774089081812</v>
       </c>
       <c r="I26" t="n">
         <v>23.29722573605045</v>
       </c>
       <c r="J26" t="n">
-        <v>51.28909701874357</v>
+        <v>51.28909701874358</v>
       </c>
       <c r="K26" t="n">
-        <v>76.86906110426369</v>
+        <v>76.86906110426374</v>
       </c>
       <c r="L26" t="n">
-        <v>95.36286752718449</v>
+        <v>95.36286752718453</v>
       </c>
       <c r="M26" t="n">
         <v>106.1095645814219</v>
       </c>
       <c r="N26" t="n">
-        <v>107.8265282704836</v>
+        <v>107.8265282704837</v>
       </c>
       <c r="O26" t="n">
         <v>101.8175330454567</v>
       </c>
       <c r="P26" t="n">
-        <v>86.89890882241679</v>
+        <v>86.89890882241683</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.25746153177919</v>
+        <v>65.2574615317792</v>
       </c>
       <c r="R26" t="n">
-        <v>37.95977838381891</v>
+        <v>37.95977838381893</v>
       </c>
       <c r="S26" t="n">
         <v>13.77045668789961</v>
       </c>
       <c r="T26" t="n">
-        <v>2.645317571092945</v>
+        <v>2.645317571092946</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04834389621643301</v>
+        <v>0.04834389621643302</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.323328310603184</v>
+        <v>0.3233283106031842</v>
       </c>
       <c r="H27" t="n">
-        <v>3.122670789246541</v>
+        <v>3.122670789246542</v>
       </c>
       <c r="I27" t="n">
         <v>11.13213700980261</v>
       </c>
       <c r="J27" t="n">
-        <v>30.54743481887363</v>
+        <v>30.54743481887364</v>
       </c>
       <c r="K27" t="n">
-        <v>52.21043162928696</v>
+        <v>52.21043162928698</v>
       </c>
       <c r="L27" t="n">
-        <v>70.20336849302906</v>
+        <v>70.20336849302909</v>
       </c>
       <c r="M27" t="n">
-        <v>81.92401975239447</v>
+        <v>81.9240197523945</v>
       </c>
       <c r="N27" t="n">
-        <v>84.09230478271145</v>
+        <v>84.09230478271148</v>
       </c>
       <c r="O27" t="n">
-        <v>76.92803011092511</v>
+        <v>76.92803011092514</v>
       </c>
       <c r="P27" t="n">
-        <v>61.74152625895363</v>
+        <v>61.74152625895366</v>
       </c>
       <c r="Q27" t="n">
-        <v>41.27257522717135</v>
+        <v>41.27257522717137</v>
       </c>
       <c r="R27" t="n">
         <v>20.07471738990647</v>
       </c>
       <c r="S27" t="n">
-        <v>6.005681558791594</v>
+        <v>6.005681558791596</v>
       </c>
       <c r="T27" t="n">
         <v>1.303239988790904</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02127159938178843</v>
+        <v>0.02127159938178844</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,46 +33095,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2710675943078175</v>
+        <v>0.2710675943078176</v>
       </c>
       <c r="H28" t="n">
-        <v>2.410037338482233</v>
+        <v>2.410037338482234</v>
       </c>
       <c r="I28" t="n">
-        <v>8.151741836093278</v>
+        <v>8.151741836093279</v>
       </c>
       <c r="J28" t="n">
-        <v>19.16447891756269</v>
+        <v>19.1644789175627</v>
       </c>
       <c r="K28" t="n">
-        <v>31.4931259568537</v>
+        <v>31.49312595685371</v>
       </c>
       <c r="L28" t="n">
-        <v>40.30035852100043</v>
+        <v>40.30035852100045</v>
       </c>
       <c r="M28" t="n">
-        <v>42.49107753317905</v>
+        <v>42.49107753317907</v>
       </c>
       <c r="N28" t="n">
-        <v>41.48073468166813</v>
+        <v>41.48073468166815</v>
       </c>
       <c r="O28" t="n">
-        <v>38.31417232998134</v>
+        <v>38.31417232998135</v>
       </c>
       <c r="P28" t="n">
-        <v>32.78439340610183</v>
+        <v>32.78439340610185</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.6982146469937</v>
+        <v>22.69821464699371</v>
       </c>
       <c r="R28" t="n">
         <v>12.18818474042241</v>
       </c>
       <c r="S28" t="n">
-        <v>4.723968893528053</v>
+        <v>4.723968893528055</v>
       </c>
       <c r="T28" t="n">
-        <v>1.158197902951583</v>
+        <v>1.158197902951584</v>
       </c>
       <c r="U28" t="n">
         <v>0.01478550514406279</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6042987027054126</v>
+        <v>0.6042987027054129</v>
       </c>
       <c r="H29" t="n">
-        <v>6.188774089081809</v>
+        <v>6.188774089081812</v>
       </c>
       <c r="I29" t="n">
         <v>23.29722573605045</v>
       </c>
       <c r="J29" t="n">
-        <v>51.28909701874357</v>
+        <v>51.28909701874358</v>
       </c>
       <c r="K29" t="n">
-        <v>76.86906110426369</v>
+        <v>76.86906110426374</v>
       </c>
       <c r="L29" t="n">
-        <v>95.36286752718449</v>
+        <v>95.36286752718453</v>
       </c>
       <c r="M29" t="n">
         <v>106.1095645814219</v>
       </c>
       <c r="N29" t="n">
-        <v>107.8265282704836</v>
+        <v>107.8265282704837</v>
       </c>
       <c r="O29" t="n">
         <v>101.8175330454567</v>
       </c>
       <c r="P29" t="n">
-        <v>86.89890882241679</v>
+        <v>86.89890882241683</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.25746153177919</v>
+        <v>65.2574615317792</v>
       </c>
       <c r="R29" t="n">
-        <v>37.95977838381891</v>
+        <v>37.95977838381893</v>
       </c>
       <c r="S29" t="n">
         <v>13.77045668789961</v>
       </c>
       <c r="T29" t="n">
-        <v>2.645317571092945</v>
+        <v>2.645317571092946</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04834389621643301</v>
+        <v>0.04834389621643302</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.323328310603184</v>
+        <v>0.3233283106031842</v>
       </c>
       <c r="H30" t="n">
-        <v>3.122670789246541</v>
+        <v>3.122670789246542</v>
       </c>
       <c r="I30" t="n">
         <v>11.13213700980261</v>
       </c>
       <c r="J30" t="n">
-        <v>30.54743481887363</v>
+        <v>30.54743481887364</v>
       </c>
       <c r="K30" t="n">
-        <v>52.21043162928696</v>
+        <v>52.21043162928698</v>
       </c>
       <c r="L30" t="n">
-        <v>70.20336849302906</v>
+        <v>70.20336849302909</v>
       </c>
       <c r="M30" t="n">
-        <v>81.92401975239447</v>
+        <v>81.9240197523945</v>
       </c>
       <c r="N30" t="n">
-        <v>84.09230478271145</v>
+        <v>84.09230478271148</v>
       </c>
       <c r="O30" t="n">
-        <v>76.92803011092511</v>
+        <v>76.92803011092514</v>
       </c>
       <c r="P30" t="n">
-        <v>61.74152625895363</v>
+        <v>61.74152625895366</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.27257522717135</v>
+        <v>41.27257522717137</v>
       </c>
       <c r="R30" t="n">
         <v>20.07471738990647</v>
       </c>
       <c r="S30" t="n">
-        <v>6.005681558791594</v>
+        <v>6.005681558791596</v>
       </c>
       <c r="T30" t="n">
         <v>1.303239988790904</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02127159938178843</v>
+        <v>0.02127159938178844</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,46 +33332,46 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2710675943078175</v>
+        <v>0.2710675943078176</v>
       </c>
       <c r="H31" t="n">
-        <v>2.410037338482233</v>
+        <v>2.410037338482234</v>
       </c>
       <c r="I31" t="n">
-        <v>8.151741836093278</v>
+        <v>8.151741836093279</v>
       </c>
       <c r="J31" t="n">
-        <v>19.16447891756269</v>
+        <v>19.1644789175627</v>
       </c>
       <c r="K31" t="n">
-        <v>31.4931259568537</v>
+        <v>31.49312595685371</v>
       </c>
       <c r="L31" t="n">
-        <v>40.30035852100043</v>
+        <v>40.30035852100045</v>
       </c>
       <c r="M31" t="n">
-        <v>42.49107753317905</v>
+        <v>42.49107753317907</v>
       </c>
       <c r="N31" t="n">
-        <v>41.48073468166813</v>
+        <v>41.48073468166815</v>
       </c>
       <c r="O31" t="n">
-        <v>38.31417232998134</v>
+        <v>38.31417232998135</v>
       </c>
       <c r="P31" t="n">
-        <v>32.78439340610183</v>
+        <v>32.78439340610185</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.6982146469937</v>
+        <v>22.69821464699371</v>
       </c>
       <c r="R31" t="n">
         <v>12.18818474042241</v>
       </c>
       <c r="S31" t="n">
-        <v>4.723968893528053</v>
+        <v>4.723968893528055</v>
       </c>
       <c r="T31" t="n">
-        <v>1.158197902951583</v>
+        <v>1.158197902951584</v>
       </c>
       <c r="U31" t="n">
         <v>0.01478550514406279</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6042987027054126</v>
+        <v>0.6042987027054129</v>
       </c>
       <c r="H32" t="n">
-        <v>6.188774089081809</v>
+        <v>6.188774089081812</v>
       </c>
       <c r="I32" t="n">
         <v>23.29722573605045</v>
       </c>
       <c r="J32" t="n">
-        <v>51.28909701874357</v>
+        <v>51.28909701874358</v>
       </c>
       <c r="K32" t="n">
-        <v>76.86906110426369</v>
+        <v>76.86906110426374</v>
       </c>
       <c r="L32" t="n">
-        <v>95.36286752718449</v>
+        <v>95.36286752718453</v>
       </c>
       <c r="M32" t="n">
         <v>106.1095645814219</v>
       </c>
       <c r="N32" t="n">
-        <v>107.8265282704836</v>
+        <v>107.8265282704837</v>
       </c>
       <c r="O32" t="n">
         <v>101.8175330454567</v>
       </c>
       <c r="P32" t="n">
-        <v>86.89890882241679</v>
+        <v>86.89890882241683</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.25746153177919</v>
+        <v>65.2574615317792</v>
       </c>
       <c r="R32" t="n">
-        <v>37.95977838381891</v>
+        <v>37.95977838381893</v>
       </c>
       <c r="S32" t="n">
         <v>13.77045668789961</v>
       </c>
       <c r="T32" t="n">
-        <v>2.645317571092945</v>
+        <v>2.645317571092946</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04834389621643301</v>
+        <v>0.04834389621643302</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.323328310603184</v>
+        <v>0.3233283106031842</v>
       </c>
       <c r="H33" t="n">
-        <v>3.122670789246541</v>
+        <v>3.122670789246542</v>
       </c>
       <c r="I33" t="n">
         <v>11.13213700980261</v>
       </c>
       <c r="J33" t="n">
-        <v>30.54743481887363</v>
+        <v>30.54743481887364</v>
       </c>
       <c r="K33" t="n">
-        <v>52.21043162928696</v>
+        <v>52.21043162928698</v>
       </c>
       <c r="L33" t="n">
-        <v>70.20336849302906</v>
+        <v>70.20336849302909</v>
       </c>
       <c r="M33" t="n">
-        <v>81.92401975239447</v>
+        <v>81.9240197523945</v>
       </c>
       <c r="N33" t="n">
-        <v>84.09230478271145</v>
+        <v>84.09230478271148</v>
       </c>
       <c r="O33" t="n">
-        <v>76.92803011092511</v>
+        <v>76.92803011092514</v>
       </c>
       <c r="P33" t="n">
-        <v>61.74152625895363</v>
+        <v>61.74152625895366</v>
       </c>
       <c r="Q33" t="n">
-        <v>41.27257522717135</v>
+        <v>41.27257522717137</v>
       </c>
       <c r="R33" t="n">
         <v>20.07471738990647</v>
       </c>
       <c r="S33" t="n">
-        <v>6.005681558791594</v>
+        <v>6.005681558791596</v>
       </c>
       <c r="T33" t="n">
         <v>1.303239988790904</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02127159938178843</v>
+        <v>0.02127159938178844</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,46 +33569,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2710675943078175</v>
+        <v>0.2710675943078176</v>
       </c>
       <c r="H34" t="n">
-        <v>2.410037338482233</v>
+        <v>2.410037338482234</v>
       </c>
       <c r="I34" t="n">
-        <v>8.151741836093278</v>
+        <v>8.151741836093279</v>
       </c>
       <c r="J34" t="n">
-        <v>19.16447891756269</v>
+        <v>19.1644789175627</v>
       </c>
       <c r="K34" t="n">
-        <v>31.4931259568537</v>
+        <v>31.49312595685371</v>
       </c>
       <c r="L34" t="n">
-        <v>40.30035852100043</v>
+        <v>40.30035852100045</v>
       </c>
       <c r="M34" t="n">
-        <v>42.49107753317905</v>
+        <v>42.49107753317907</v>
       </c>
       <c r="N34" t="n">
-        <v>41.48073468166813</v>
+        <v>41.48073468166815</v>
       </c>
       <c r="O34" t="n">
-        <v>38.31417232998134</v>
+        <v>38.31417232998135</v>
       </c>
       <c r="P34" t="n">
-        <v>32.78439340610183</v>
+        <v>32.78439340610185</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.6982146469937</v>
+        <v>22.69821464699371</v>
       </c>
       <c r="R34" t="n">
         <v>12.18818474042241</v>
       </c>
       <c r="S34" t="n">
-        <v>4.723968893528053</v>
+        <v>4.723968893528055</v>
       </c>
       <c r="T34" t="n">
-        <v>1.158197902951583</v>
+        <v>1.158197902951584</v>
       </c>
       <c r="U34" t="n">
         <v>0.01478550514406279</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6042987027054126</v>
+        <v>0.6042987027054129</v>
       </c>
       <c r="H35" t="n">
-        <v>6.188774089081809</v>
+        <v>6.188774089081812</v>
       </c>
       <c r="I35" t="n">
         <v>23.29722573605045</v>
       </c>
       <c r="J35" t="n">
-        <v>51.28909701874357</v>
+        <v>51.28909701874358</v>
       </c>
       <c r="K35" t="n">
-        <v>76.86906110426369</v>
+        <v>76.86906110426374</v>
       </c>
       <c r="L35" t="n">
-        <v>95.36286752718449</v>
+        <v>95.36286752718453</v>
       </c>
       <c r="M35" t="n">
         <v>106.1095645814219</v>
       </c>
       <c r="N35" t="n">
-        <v>107.8265282704836</v>
+        <v>107.8265282704837</v>
       </c>
       <c r="O35" t="n">
         <v>101.8175330454567</v>
       </c>
       <c r="P35" t="n">
-        <v>86.89890882241679</v>
+        <v>86.89890882241683</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.25746153177919</v>
+        <v>65.2574615317792</v>
       </c>
       <c r="R35" t="n">
-        <v>37.95977838381891</v>
+        <v>37.95977838381893</v>
       </c>
       <c r="S35" t="n">
         <v>13.77045668789961</v>
       </c>
       <c r="T35" t="n">
-        <v>2.645317571092945</v>
+        <v>2.645317571092946</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04834389621643301</v>
+        <v>0.04834389621643302</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.323328310603184</v>
+        <v>0.3233283106031842</v>
       </c>
       <c r="H36" t="n">
-        <v>3.122670789246541</v>
+        <v>3.122670789246542</v>
       </c>
       <c r="I36" t="n">
         <v>11.13213700980261</v>
       </c>
       <c r="J36" t="n">
-        <v>30.54743481887363</v>
+        <v>30.54743481887364</v>
       </c>
       <c r="K36" t="n">
-        <v>52.21043162928696</v>
+        <v>52.21043162928698</v>
       </c>
       <c r="L36" t="n">
-        <v>70.20336849302906</v>
+        <v>70.20336849302909</v>
       </c>
       <c r="M36" t="n">
-        <v>81.92401975239447</v>
+        <v>81.9240197523945</v>
       </c>
       <c r="N36" t="n">
-        <v>84.09230478271145</v>
+        <v>84.09230478271148</v>
       </c>
       <c r="O36" t="n">
-        <v>76.92803011092511</v>
+        <v>76.92803011092514</v>
       </c>
       <c r="P36" t="n">
-        <v>61.74152625895363</v>
+        <v>61.74152625895366</v>
       </c>
       <c r="Q36" t="n">
-        <v>41.27257522717135</v>
+        <v>41.27257522717137</v>
       </c>
       <c r="R36" t="n">
         <v>20.07471738990647</v>
       </c>
       <c r="S36" t="n">
-        <v>6.005681558791594</v>
+        <v>6.005681558791596</v>
       </c>
       <c r="T36" t="n">
         <v>1.303239988790904</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02127159938178843</v>
+        <v>0.02127159938178844</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,46 +33806,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2710675943078175</v>
+        <v>0.2710675943078176</v>
       </c>
       <c r="H37" t="n">
-        <v>2.410037338482233</v>
+        <v>2.410037338482234</v>
       </c>
       <c r="I37" t="n">
-        <v>8.151741836093278</v>
+        <v>8.151741836093279</v>
       </c>
       <c r="J37" t="n">
-        <v>19.16447891756269</v>
+        <v>19.1644789175627</v>
       </c>
       <c r="K37" t="n">
-        <v>31.4931259568537</v>
+        <v>31.49312595685371</v>
       </c>
       <c r="L37" t="n">
-        <v>40.30035852100043</v>
+        <v>40.30035852100045</v>
       </c>
       <c r="M37" t="n">
-        <v>42.49107753317905</v>
+        <v>42.49107753317907</v>
       </c>
       <c r="N37" t="n">
-        <v>41.48073468166813</v>
+        <v>41.48073468166815</v>
       </c>
       <c r="O37" t="n">
-        <v>38.31417232998134</v>
+        <v>38.31417232998135</v>
       </c>
       <c r="P37" t="n">
-        <v>32.78439340610183</v>
+        <v>32.78439340610185</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.6982146469937</v>
+        <v>22.69821464699371</v>
       </c>
       <c r="R37" t="n">
         <v>12.18818474042241</v>
       </c>
       <c r="S37" t="n">
-        <v>4.723968893528053</v>
+        <v>4.723968893528055</v>
       </c>
       <c r="T37" t="n">
-        <v>1.158197902951583</v>
+        <v>1.158197902951584</v>
       </c>
       <c r="U37" t="n">
         <v>0.01478550514406279</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6042987027054126</v>
+        <v>0.6042987027054129</v>
       </c>
       <c r="H38" t="n">
-        <v>6.188774089081809</v>
+        <v>6.188774089081812</v>
       </c>
       <c r="I38" t="n">
         <v>23.29722573605045</v>
       </c>
       <c r="J38" t="n">
-        <v>51.28909701874357</v>
+        <v>51.28909701874358</v>
       </c>
       <c r="K38" t="n">
-        <v>76.86906110426369</v>
+        <v>76.86906110426374</v>
       </c>
       <c r="L38" t="n">
-        <v>95.36286752718449</v>
+        <v>95.36286752718453</v>
       </c>
       <c r="M38" t="n">
         <v>106.1095645814219</v>
       </c>
       <c r="N38" t="n">
-        <v>107.8265282704836</v>
+        <v>107.8265282704837</v>
       </c>
       <c r="O38" t="n">
         <v>101.8175330454567</v>
       </c>
       <c r="P38" t="n">
-        <v>86.89890882241679</v>
+        <v>86.89890882241683</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.25746153177919</v>
+        <v>65.2574615317792</v>
       </c>
       <c r="R38" t="n">
-        <v>37.95977838381891</v>
+        <v>37.95977838381893</v>
       </c>
       <c r="S38" t="n">
         <v>13.77045668789961</v>
       </c>
       <c r="T38" t="n">
-        <v>2.645317571092945</v>
+        <v>2.645317571092946</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04834389621643301</v>
+        <v>0.04834389621643302</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.323328310603184</v>
+        <v>0.3233283106031842</v>
       </c>
       <c r="H39" t="n">
-        <v>3.122670789246541</v>
+        <v>3.122670789246542</v>
       </c>
       <c r="I39" t="n">
         <v>11.13213700980261</v>
       </c>
       <c r="J39" t="n">
-        <v>30.54743481887363</v>
+        <v>30.54743481887364</v>
       </c>
       <c r="K39" t="n">
-        <v>52.21043162928696</v>
+        <v>52.21043162928698</v>
       </c>
       <c r="L39" t="n">
-        <v>70.20336849302906</v>
+        <v>70.20336849302909</v>
       </c>
       <c r="M39" t="n">
-        <v>81.92401975239447</v>
+        <v>81.9240197523945</v>
       </c>
       <c r="N39" t="n">
-        <v>84.09230478271145</v>
+        <v>84.09230478271148</v>
       </c>
       <c r="O39" t="n">
-        <v>76.92803011092511</v>
+        <v>76.92803011092514</v>
       </c>
       <c r="P39" t="n">
-        <v>61.74152625895363</v>
+        <v>61.74152625895366</v>
       </c>
       <c r="Q39" t="n">
-        <v>41.27257522717135</v>
+        <v>41.27257522717137</v>
       </c>
       <c r="R39" t="n">
         <v>20.07471738990647</v>
       </c>
       <c r="S39" t="n">
-        <v>6.005681558791594</v>
+        <v>6.005681558791596</v>
       </c>
       <c r="T39" t="n">
         <v>1.303239988790904</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02127159938178843</v>
+        <v>0.02127159938178844</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,46 +34043,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2710675943078175</v>
+        <v>0.2710675943078176</v>
       </c>
       <c r="H40" t="n">
-        <v>2.410037338482233</v>
+        <v>2.410037338482234</v>
       </c>
       <c r="I40" t="n">
-        <v>8.151741836093278</v>
+        <v>8.151741836093279</v>
       </c>
       <c r="J40" t="n">
-        <v>19.16447891756269</v>
+        <v>19.1644789175627</v>
       </c>
       <c r="K40" t="n">
-        <v>31.4931259568537</v>
+        <v>31.49312595685371</v>
       </c>
       <c r="L40" t="n">
-        <v>40.30035852100043</v>
+        <v>40.30035852100045</v>
       </c>
       <c r="M40" t="n">
-        <v>42.49107753317905</v>
+        <v>42.49107753317907</v>
       </c>
       <c r="N40" t="n">
-        <v>41.48073468166813</v>
+        <v>41.48073468166815</v>
       </c>
       <c r="O40" t="n">
-        <v>38.31417232998134</v>
+        <v>38.31417232998135</v>
       </c>
       <c r="P40" t="n">
-        <v>32.78439340610183</v>
+        <v>32.78439340610185</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.6982146469937</v>
+        <v>22.69821464699371</v>
       </c>
       <c r="R40" t="n">
         <v>12.18818474042241</v>
       </c>
       <c r="S40" t="n">
-        <v>4.723968893528053</v>
+        <v>4.723968893528055</v>
       </c>
       <c r="T40" t="n">
-        <v>1.158197902951583</v>
+        <v>1.158197902951584</v>
       </c>
       <c r="U40" t="n">
         <v>0.01478550514406279</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6042987027054126</v>
+        <v>0.6042987027054129</v>
       </c>
       <c r="H41" t="n">
-        <v>6.188774089081809</v>
+        <v>6.188774089081812</v>
       </c>
       <c r="I41" t="n">
         <v>23.29722573605045</v>
       </c>
       <c r="J41" t="n">
-        <v>51.28909701874357</v>
+        <v>51.28909701874358</v>
       </c>
       <c r="K41" t="n">
-        <v>76.86906110426369</v>
+        <v>76.86906110426374</v>
       </c>
       <c r="L41" t="n">
-        <v>95.36286752718449</v>
+        <v>95.36286752718453</v>
       </c>
       <c r="M41" t="n">
         <v>106.1095645814219</v>
       </c>
       <c r="N41" t="n">
-        <v>107.8265282704836</v>
+        <v>107.8265282704837</v>
       </c>
       <c r="O41" t="n">
         <v>101.8175330454567</v>
       </c>
       <c r="P41" t="n">
-        <v>86.89890882241679</v>
+        <v>86.89890882241683</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.25746153177919</v>
+        <v>65.2574615317792</v>
       </c>
       <c r="R41" t="n">
-        <v>37.95977838381891</v>
+        <v>37.95977838381893</v>
       </c>
       <c r="S41" t="n">
         <v>13.77045668789961</v>
       </c>
       <c r="T41" t="n">
-        <v>2.645317571092945</v>
+        <v>2.645317571092946</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04834389621643301</v>
+        <v>0.04834389621643302</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.323328310603184</v>
+        <v>0.3233283106031842</v>
       </c>
       <c r="H42" t="n">
-        <v>3.122670789246541</v>
+        <v>3.122670789246542</v>
       </c>
       <c r="I42" t="n">
         <v>11.13213700980261</v>
       </c>
       <c r="J42" t="n">
-        <v>30.54743481887363</v>
+        <v>30.54743481887364</v>
       </c>
       <c r="K42" t="n">
-        <v>52.21043162928696</v>
+        <v>52.21043162928698</v>
       </c>
       <c r="L42" t="n">
-        <v>70.20336849302906</v>
+        <v>70.20336849302909</v>
       </c>
       <c r="M42" t="n">
-        <v>81.92401975239447</v>
+        <v>81.9240197523945</v>
       </c>
       <c r="N42" t="n">
-        <v>84.09230478271145</v>
+        <v>84.09230478271148</v>
       </c>
       <c r="O42" t="n">
-        <v>76.92803011092511</v>
+        <v>76.92803011092514</v>
       </c>
       <c r="P42" t="n">
-        <v>61.74152625895363</v>
+        <v>61.74152625895366</v>
       </c>
       <c r="Q42" t="n">
-        <v>41.27257522717135</v>
+        <v>41.27257522717137</v>
       </c>
       <c r="R42" t="n">
         <v>20.07471738990647</v>
       </c>
       <c r="S42" t="n">
-        <v>6.005681558791594</v>
+        <v>6.005681558791596</v>
       </c>
       <c r="T42" t="n">
         <v>1.303239988790904</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02127159938178843</v>
+        <v>0.02127159938178844</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,46 +34280,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2710675943078175</v>
+        <v>0.2710675943078176</v>
       </c>
       <c r="H43" t="n">
-        <v>2.410037338482233</v>
+        <v>2.410037338482234</v>
       </c>
       <c r="I43" t="n">
-        <v>8.151741836093278</v>
+        <v>8.151741836093279</v>
       </c>
       <c r="J43" t="n">
-        <v>19.16447891756269</v>
+        <v>19.1644789175627</v>
       </c>
       <c r="K43" t="n">
-        <v>31.4931259568537</v>
+        <v>31.49312595685371</v>
       </c>
       <c r="L43" t="n">
-        <v>40.30035852100043</v>
+        <v>40.30035852100045</v>
       </c>
       <c r="M43" t="n">
-        <v>42.49107753317905</v>
+        <v>42.49107753317907</v>
       </c>
       <c r="N43" t="n">
-        <v>41.48073468166813</v>
+        <v>41.48073468166815</v>
       </c>
       <c r="O43" t="n">
-        <v>38.31417232998134</v>
+        <v>38.31417232998135</v>
       </c>
       <c r="P43" t="n">
-        <v>32.78439340610183</v>
+        <v>32.78439340610185</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.6982146469937</v>
+        <v>22.69821464699371</v>
       </c>
       <c r="R43" t="n">
         <v>12.18818474042241</v>
       </c>
       <c r="S43" t="n">
-        <v>4.723968893528053</v>
+        <v>4.723968893528055</v>
       </c>
       <c r="T43" t="n">
-        <v>1.158197902951583</v>
+        <v>1.158197902951584</v>
       </c>
       <c r="U43" t="n">
         <v>0.01478550514406279</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6042987027054126</v>
+        <v>0.6042987027054129</v>
       </c>
       <c r="H44" t="n">
-        <v>6.188774089081809</v>
+        <v>6.188774089081812</v>
       </c>
       <c r="I44" t="n">
         <v>23.29722573605045</v>
       </c>
       <c r="J44" t="n">
-        <v>51.28909701874357</v>
+        <v>51.28909701874358</v>
       </c>
       <c r="K44" t="n">
-        <v>76.86906110426369</v>
+        <v>76.86906110426374</v>
       </c>
       <c r="L44" t="n">
-        <v>95.36286752718449</v>
+        <v>95.36286752718453</v>
       </c>
       <c r="M44" t="n">
         <v>106.1095645814219</v>
       </c>
       <c r="N44" t="n">
-        <v>107.8265282704836</v>
+        <v>107.8265282704837</v>
       </c>
       <c r="O44" t="n">
         <v>101.8175330454567</v>
       </c>
       <c r="P44" t="n">
-        <v>86.89890882241679</v>
+        <v>86.89890882241683</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.25746153177919</v>
+        <v>65.2574615317792</v>
       </c>
       <c r="R44" t="n">
-        <v>37.95977838381891</v>
+        <v>37.95977838381893</v>
       </c>
       <c r="S44" t="n">
         <v>13.77045668789961</v>
       </c>
       <c r="T44" t="n">
-        <v>2.645317571092945</v>
+        <v>2.645317571092946</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04834389621643301</v>
+        <v>0.04834389621643302</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.323328310603184</v>
+        <v>0.3233283106031842</v>
       </c>
       <c r="H45" t="n">
-        <v>3.122670789246541</v>
+        <v>3.122670789246542</v>
       </c>
       <c r="I45" t="n">
         <v>11.13213700980261</v>
       </c>
       <c r="J45" t="n">
-        <v>30.54743481887363</v>
+        <v>30.54743481887364</v>
       </c>
       <c r="K45" t="n">
-        <v>52.21043162928696</v>
+        <v>52.21043162928698</v>
       </c>
       <c r="L45" t="n">
-        <v>70.20336849302906</v>
+        <v>70.20336849302909</v>
       </c>
       <c r="M45" t="n">
-        <v>81.92401975239447</v>
+        <v>81.9240197523945</v>
       </c>
       <c r="N45" t="n">
-        <v>84.09230478271145</v>
+        <v>84.09230478271148</v>
       </c>
       <c r="O45" t="n">
-        <v>76.92803011092511</v>
+        <v>76.92803011092514</v>
       </c>
       <c r="P45" t="n">
-        <v>61.74152625895363</v>
+        <v>61.74152625895366</v>
       </c>
       <c r="Q45" t="n">
-        <v>41.27257522717135</v>
+        <v>41.27257522717137</v>
       </c>
       <c r="R45" t="n">
         <v>20.07471738990647</v>
       </c>
       <c r="S45" t="n">
-        <v>6.005681558791594</v>
+        <v>6.005681558791596</v>
       </c>
       <c r="T45" t="n">
         <v>1.303239988790904</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02127159938178843</v>
+        <v>0.02127159938178844</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,46 +34517,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2710675943078175</v>
+        <v>0.2710675943078176</v>
       </c>
       <c r="H46" t="n">
-        <v>2.410037338482233</v>
+        <v>2.410037338482234</v>
       </c>
       <c r="I46" t="n">
-        <v>8.151741836093278</v>
+        <v>8.151741836093279</v>
       </c>
       <c r="J46" t="n">
-        <v>19.16447891756269</v>
+        <v>19.1644789175627</v>
       </c>
       <c r="K46" t="n">
-        <v>31.4931259568537</v>
+        <v>31.49312595685371</v>
       </c>
       <c r="L46" t="n">
-        <v>40.30035852100043</v>
+        <v>40.30035852100045</v>
       </c>
       <c r="M46" t="n">
-        <v>42.49107753317905</v>
+        <v>42.49107753317907</v>
       </c>
       <c r="N46" t="n">
-        <v>41.48073468166813</v>
+        <v>41.48073468166815</v>
       </c>
       <c r="O46" t="n">
-        <v>38.31417232998134</v>
+        <v>38.31417232998135</v>
       </c>
       <c r="P46" t="n">
-        <v>32.78439340610183</v>
+        <v>32.78439340610185</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.6982146469937</v>
+        <v>22.69821464699371</v>
       </c>
       <c r="R46" t="n">
         <v>12.18818474042241</v>
       </c>
       <c r="S46" t="n">
-        <v>4.723968893528053</v>
+        <v>4.723968893528055</v>
       </c>
       <c r="T46" t="n">
-        <v>1.158197902951583</v>
+        <v>1.158197902951584</v>
       </c>
       <c r="U46" t="n">
         <v>0.01478550514406279</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O2" t="n">
-        <v>415.010189472638</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>144.2794790315872</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="K9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>162.8199733981321</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>21.86913753315704</v>
+        <v>417.5552170358097</v>
       </c>
       <c r="K11" t="n">
-        <v>41.10446030945435</v>
+        <v>624.0949790424837</v>
       </c>
       <c r="L11" t="n">
-        <v>624.0949790424837</v>
+        <v>57.05082509456161</v>
       </c>
       <c r="M11" t="n">
-        <v>624.0949790424837</v>
+        <v>68.67830168199009</v>
       </c>
       <c r="N11" t="n">
-        <v>624.0949790424837</v>
+        <v>70.54690543603766</v>
       </c>
       <c r="O11" t="n">
-        <v>454.5219600222922</v>
+        <v>64.42657368943262</v>
       </c>
       <c r="P11" t="n">
-        <v>49.32354701218549</v>
+        <v>486.1577393772689</v>
       </c>
       <c r="Q11" t="n">
-        <v>29.13278692718114</v>
+        <v>525.9498650713581</v>
       </c>
       <c r="R11" t="n">
-        <v>2.927128489022444</v>
+        <v>156.7035509918014</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.85736915725316</v>
       </c>
       <c r="J12" t="n">
-        <v>9.936320485540296</v>
+        <v>304.9893431820969</v>
       </c>
       <c r="K12" t="n">
-        <v>467.6601364481295</v>
+        <v>624.0949790424837</v>
       </c>
       <c r="L12" t="n">
-        <v>47.68828177879951</v>
+        <v>47.68828177879954</v>
       </c>
       <c r="M12" t="n">
-        <v>624.0949790424837</v>
+        <v>58.82723924006652</v>
       </c>
       <c r="N12" t="n">
-        <v>62.74927656916979</v>
+        <v>62.74927656916982</v>
       </c>
       <c r="O12" t="n">
-        <v>53.75614038870289</v>
+        <v>53.75614038870292</v>
       </c>
       <c r="P12" t="n">
-        <v>39.97068505412496</v>
+        <v>39.97068505412499</v>
       </c>
       <c r="Q12" t="n">
-        <v>510.1063902400797</v>
+        <v>510.1063902400798</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>102.922505354253</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>77.23652762883341</v>
+        <v>77.23652762883343</v>
       </c>
       <c r="K13" t="n">
         <v>260.3088847506286</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>21.86913753315704</v>
+        <v>21.86913753315706</v>
       </c>
       <c r="K14" t="n">
-        <v>41.10446030945435</v>
+        <v>41.1044603094544</v>
       </c>
       <c r="L14" t="n">
         <v>624.0949790424837</v>
       </c>
       <c r="M14" t="n">
-        <v>624.0949790424837</v>
+        <v>68.67830168199009</v>
       </c>
       <c r="N14" t="n">
         <v>624.0949790424837</v>
       </c>
       <c r="O14" t="n">
-        <v>454.5219600222922</v>
+        <v>624.0949790424837</v>
       </c>
       <c r="P14" t="n">
-        <v>49.32354701218549</v>
+        <v>49.32354701218553</v>
       </c>
       <c r="Q14" t="n">
-        <v>29.13278692718114</v>
+        <v>414.9764452674831</v>
       </c>
       <c r="R14" t="n">
-        <v>2.927128489022444</v>
+        <v>2.927128489022458</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.65399858749134</v>
       </c>
       <c r="J15" t="n">
-        <v>304.9893431820969</v>
+        <v>9.936320485540307</v>
       </c>
       <c r="K15" t="n">
-        <v>29.81119779595362</v>
+        <v>29.81119779595364</v>
       </c>
       <c r="L15" t="n">
+        <v>47.68828177879954</v>
+      </c>
+      <c r="M15" t="n">
+        <v>58.82723924006652</v>
+      </c>
+      <c r="N15" t="n">
+        <v>62.74927656916982</v>
+      </c>
+      <c r="O15" t="n">
+        <v>351.1720209131927</v>
+      </c>
+      <c r="P15" t="n">
         <v>624.0949790424837</v>
       </c>
-      <c r="M15" t="n">
-        <v>58.82723924006649</v>
-      </c>
-      <c r="N15" t="n">
-        <v>624.0949790424837</v>
-      </c>
-      <c r="O15" t="n">
-        <v>115.6482497116279</v>
-      </c>
-      <c r="P15" t="n">
-        <v>39.97068505412496</v>
-      </c>
       <c r="Q15" t="n">
-        <v>18.52553693819285</v>
+        <v>510.1063902400798</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>102.922505354253</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>77.23652762883341</v>
+        <v>77.23652762883343</v>
       </c>
       <c r="K16" t="n">
         <v>260.3088847506286</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>21.86913753315704</v>
+        <v>417.5552170358097</v>
       </c>
       <c r="K17" t="n">
-        <v>799.6047257259798</v>
+        <v>799.60472572598</v>
       </c>
       <c r="L17" t="n">
         <v>1034.378067142615</v>
       </c>
       <c r="M17" t="n">
-        <v>1120.539970055218</v>
+        <v>68.67830168199009</v>
       </c>
       <c r="N17" t="n">
-        <v>1093.93870856008</v>
+        <v>255.2667236751473</v>
       </c>
       <c r="O17" t="n">
-        <v>864.2539018569735</v>
+        <v>955.4989978442568</v>
       </c>
       <c r="P17" t="n">
-        <v>49.32354701218549</v>
+        <v>802.3325241334549</v>
       </c>
       <c r="Q17" t="n">
-        <v>29.13278692718114</v>
+        <v>525.9498650713581</v>
       </c>
       <c r="R17" t="n">
-        <v>2.927128489022444</v>
+        <v>156.7035509918014</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.65399858749134</v>
       </c>
       <c r="J18" t="n">
-        <v>9.936320485540296</v>
+        <v>304.9893431820969</v>
       </c>
       <c r="K18" t="n">
-        <v>29.81119779595362</v>
+        <v>616.2983496122457</v>
       </c>
       <c r="L18" t="n">
-        <v>47.68828177879951</v>
+        <v>47.68828177879954</v>
       </c>
       <c r="M18" t="n">
-        <v>1148.577088415066</v>
+        <v>58.82723924006652</v>
       </c>
       <c r="N18" t="n">
-        <v>467.6969591506501</v>
+        <v>62.74927656916982</v>
       </c>
       <c r="O18" t="n">
-        <v>53.75614038870289</v>
+        <v>53.75614038870292</v>
       </c>
       <c r="P18" t="n">
-        <v>39.97068505412496</v>
+        <v>39.97068505412499</v>
       </c>
       <c r="Q18" t="n">
-        <v>18.52553693819285</v>
+        <v>510.1063902400798</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>102.922505354253</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>77.23652762883341</v>
+        <v>77.23652762883343</v>
       </c>
       <c r="K19" t="n">
         <v>260.3088847506286</v>
@@ -36123,19 +36123,19 @@
         <v>417.5552170358097</v>
       </c>
       <c r="K20" t="n">
-        <v>41.10446030945435</v>
+        <v>799.60472572598</v>
       </c>
       <c r="L20" t="n">
-        <v>57.05082509456157</v>
+        <v>1034.378067142615</v>
       </c>
       <c r="M20" t="n">
-        <v>1120.539970055218</v>
+        <v>407.1745424238782</v>
       </c>
       <c r="N20" t="n">
-        <v>1093.93870856008</v>
+        <v>70.54690543603766</v>
       </c>
       <c r="O20" t="n">
-        <v>800.7928520506755</v>
+        <v>955.4989978442568</v>
       </c>
       <c r="P20" t="n">
         <v>802.3325241334549</v>
@@ -36144,7 +36144,7 @@
         <v>525.9498650713581</v>
       </c>
       <c r="R20" t="n">
-        <v>156.7035509918014</v>
+        <v>2.927128489022458</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>9.936320485540296</v>
+        <v>304.9893431820969</v>
       </c>
       <c r="K21" t="n">
-        <v>29.81119779595362</v>
+        <v>634.952348199737</v>
       </c>
       <c r="L21" t="n">
-        <v>47.68828177879951</v>
+        <v>47.68828177879954</v>
       </c>
       <c r="M21" t="n">
-        <v>58.82723924006649</v>
+        <v>58.82723924006652</v>
       </c>
       <c r="N21" t="n">
-        <v>1184.410432533085</v>
+        <v>62.74927656916982</v>
       </c>
       <c r="O21" t="n">
-        <v>426.7925161812662</v>
+        <v>53.75614038870292</v>
       </c>
       <c r="P21" t="n">
-        <v>39.97068505412496</v>
+        <v>39.97068505412499</v>
       </c>
       <c r="Q21" t="n">
-        <v>18.52553693819285</v>
+        <v>510.1063902400798</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>102.922505354253</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>77.23652762883341</v>
+        <v>77.23652762883343</v>
       </c>
       <c r="K22" t="n">
         <v>260.3088847506286</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>21.86913753315704</v>
+        <v>417.5552170358097</v>
       </c>
       <c r="K23" t="n">
-        <v>799.6047257259798</v>
+        <v>799.60472572598</v>
       </c>
       <c r="L23" t="n">
         <v>1034.378067142615</v>
       </c>
       <c r="M23" t="n">
-        <v>1120.539970055218</v>
+        <v>253.3981199210996</v>
       </c>
       <c r="N23" t="n">
-        <v>1093.93870856008</v>
+        <v>70.54690543603766</v>
       </c>
       <c r="O23" t="n">
-        <v>864.2539018569735</v>
+        <v>955.4989978442568</v>
       </c>
       <c r="P23" t="n">
-        <v>49.32354701218549</v>
+        <v>802.3325241334549</v>
       </c>
       <c r="Q23" t="n">
-        <v>29.13278692718114</v>
+        <v>525.9498650713581</v>
       </c>
       <c r="R23" t="n">
-        <v>2.927128489022444</v>
+        <v>156.7035509918014</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>9.936320485540296</v>
+        <v>291.2818389764464</v>
       </c>
       <c r="K24" t="n">
-        <v>29.81119779595362</v>
+        <v>648.6598524053876</v>
       </c>
       <c r="L24" t="n">
-        <v>47.68828177879951</v>
+        <v>47.68828177879954</v>
       </c>
       <c r="M24" t="n">
-        <v>431.8636150326313</v>
+        <v>58.82723924006652</v>
       </c>
       <c r="N24" t="n">
-        <v>1184.410432533085</v>
+        <v>62.74927656916982</v>
       </c>
       <c r="O24" t="n">
-        <v>53.75614038870289</v>
+        <v>53.75614038870292</v>
       </c>
       <c r="P24" t="n">
-        <v>39.97068505412496</v>
+        <v>39.97068505412499</v>
       </c>
       <c r="Q24" t="n">
-        <v>18.52553693819285</v>
+        <v>510.1063902400798</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>102.922505354253</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>77.23652762883341</v>
+        <v>77.23652762883343</v>
       </c>
       <c r="K25" t="n">
         <v>260.3088847506286</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>21.86913753315704</v>
+        <v>417.5552170358097</v>
       </c>
       <c r="K26" t="n">
-        <v>799.6047257259798</v>
+        <v>799.60472572598</v>
       </c>
       <c r="L26" t="n">
         <v>1034.378067142615</v>
@@ -36606,19 +36606,19 @@
         <v>1120.539970055218</v>
       </c>
       <c r="N26" t="n">
-        <v>1093.93870856008</v>
+        <v>248.253901959522</v>
       </c>
       <c r="O26" t="n">
-        <v>864.2539018569735</v>
+        <v>64.42657368943262</v>
       </c>
       <c r="P26" t="n">
-        <v>49.32354701218549</v>
+        <v>802.3325241334549</v>
       </c>
       <c r="Q26" t="n">
-        <v>29.13278692718114</v>
+        <v>525.9498650713581</v>
       </c>
       <c r="R26" t="n">
-        <v>2.927128489022444</v>
+        <v>2.927128489022458</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>18.65399858749134</v>
       </c>
       <c r="J27" t="n">
-        <v>9.936320485540296</v>
+        <v>9.936320485540307</v>
       </c>
       <c r="K27" t="n">
-        <v>648.6598524053876</v>
+        <v>29.81119779595364</v>
       </c>
       <c r="L27" t="n">
-        <v>47.68828177879951</v>
+        <v>915.4546897888939</v>
       </c>
       <c r="M27" t="n">
-        <v>58.82723924006649</v>
+        <v>72.60100574282082</v>
       </c>
       <c r="N27" t="n">
-        <v>62.74927656916979</v>
+        <v>62.74927656916982</v>
       </c>
       <c r="O27" t="n">
-        <v>81.47963356404313</v>
+        <v>53.75614038870292</v>
       </c>
       <c r="P27" t="n">
-        <v>785.1735636715779</v>
+        <v>39.97068505412499</v>
       </c>
       <c r="Q27" t="n">
-        <v>18.52553693819285</v>
+        <v>510.1063902400798</v>
       </c>
       <c r="R27" t="n">
         <v>102.922505354253</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>77.23652762883341</v>
+        <v>77.23652762883343</v>
       </c>
       <c r="K28" t="n">
         <v>260.3088847506286</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>21.86913753315704</v>
+        <v>21.86913753315706</v>
       </c>
       <c r="K29" t="n">
-        <v>41.10446030945435</v>
+        <v>708.3596297386956</v>
       </c>
       <c r="L29" t="n">
-        <v>451.8071813064112</v>
+        <v>1034.378067142615</v>
       </c>
       <c r="M29" t="n">
         <v>1120.539970055218</v>
       </c>
       <c r="N29" t="n">
-        <v>1093.93870856008</v>
+        <v>1093.938708560081</v>
       </c>
       <c r="O29" t="n">
         <v>955.4989978442568</v>
       </c>
       <c r="P29" t="n">
-        <v>802.3325241334549</v>
+        <v>49.32354701218553</v>
       </c>
       <c r="Q29" t="n">
-        <v>525.9498650713581</v>
+        <v>29.13278692718116</v>
       </c>
       <c r="R29" t="n">
-        <v>2.927128489022444</v>
+        <v>2.927128489022458</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6.972154530670493</v>
       </c>
       <c r="J30" t="n">
         <v>304.9893431820969</v>
       </c>
       <c r="K30" t="n">
-        <v>484.2528282384244</v>
+        <v>29.81119779595364</v>
       </c>
       <c r="L30" t="n">
-        <v>47.68828177879951</v>
+        <v>47.68828177879954</v>
       </c>
       <c r="M30" t="n">
-        <v>58.82723924006649</v>
+        <v>1148.577088415066</v>
       </c>
       <c r="N30" t="n">
-        <v>62.74927656916979</v>
+        <v>62.74927656916982</v>
       </c>
       <c r="O30" t="n">
-        <v>53.75614038870289</v>
+        <v>53.75614038870292</v>
       </c>
       <c r="P30" t="n">
-        <v>785.1735636715779</v>
+        <v>39.97068505412499</v>
       </c>
       <c r="Q30" t="n">
-        <v>18.52553693819285</v>
+        <v>18.52553693819288</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>102.922505354253</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>77.23652762883341</v>
+        <v>77.23652762883343</v>
       </c>
       <c r="K31" t="n">
         <v>260.3088847506286</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>21.86913753315704</v>
+        <v>417.5552170358097</v>
       </c>
       <c r="K32" t="n">
-        <v>708.3596297386963</v>
+        <v>799.60472572598</v>
       </c>
       <c r="L32" t="n">
         <v>1034.378067142615</v>
@@ -37080,19 +37080,19 @@
         <v>1120.539970055218</v>
       </c>
       <c r="N32" t="n">
-        <v>1093.93870856008</v>
+        <v>1093.938708560081</v>
       </c>
       <c r="O32" t="n">
-        <v>955.4989978442568</v>
+        <v>64.42657368943262</v>
       </c>
       <c r="P32" t="n">
-        <v>49.32354701218549</v>
+        <v>453.4647956770742</v>
       </c>
       <c r="Q32" t="n">
-        <v>29.13278692718114</v>
+        <v>29.13278692718116</v>
       </c>
       <c r="R32" t="n">
-        <v>2.927128489022444</v>
+        <v>2.927128489022458</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>9.936320485540296</v>
+        <v>9.936320485540307</v>
       </c>
       <c r="K33" t="n">
-        <v>29.81119779595362</v>
+        <v>287.7249976330939</v>
       </c>
       <c r="L33" t="n">
-        <v>47.68828177879951</v>
+        <v>47.68828177879954</v>
       </c>
       <c r="M33" t="n">
-        <v>431.8636150326313</v>
+        <v>58.82723924006652</v>
       </c>
       <c r="N33" t="n">
-        <v>1184.410432533085</v>
+        <v>62.74927656916982</v>
       </c>
       <c r="O33" t="n">
-        <v>53.75614038870289</v>
+        <v>53.75614038870292</v>
       </c>
       <c r="P33" t="n">
-        <v>39.97068505412496</v>
+        <v>785.1735636715779</v>
       </c>
       <c r="Q33" t="n">
-        <v>18.52553693819285</v>
+        <v>510.1063902400798</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.23652762883341</v>
+        <v>77.23652762883343</v>
       </c>
       <c r="K34" t="n">
         <v>260.3088847506286</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>21.86913753315704</v>
+        <v>21.86913753315706</v>
       </c>
       <c r="K35" t="n">
-        <v>799.6047257259798</v>
+        <v>708.3596297386956</v>
       </c>
       <c r="L35" t="n">
         <v>1034.378067142615</v>
@@ -37317,19 +37317,19 @@
         <v>1120.539970055218</v>
       </c>
       <c r="N35" t="n">
-        <v>1002.693612572797</v>
+        <v>1093.938708560081</v>
       </c>
       <c r="O35" t="n">
         <v>955.4989978442568</v>
       </c>
       <c r="P35" t="n">
-        <v>49.32354701218549</v>
+        <v>49.32354701218553</v>
       </c>
       <c r="Q35" t="n">
-        <v>29.13278692718114</v>
+        <v>29.13278692718116</v>
       </c>
       <c r="R35" t="n">
-        <v>2.927128489022444</v>
+        <v>2.927128489022458</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>304.9893431820969</v>
+        <v>9.936320485540307</v>
       </c>
       <c r="K36" t="n">
         <v>648.6598524053876</v>
       </c>
       <c r="L36" t="n">
-        <v>47.68828177879951</v>
+        <v>47.68828177879954</v>
       </c>
       <c r="M36" t="n">
-        <v>58.82723924006649</v>
+        <v>58.82723924006652</v>
       </c>
       <c r="N36" t="n">
-        <v>62.74927656916979</v>
+        <v>62.74927656916982</v>
       </c>
       <c r="O36" t="n">
-        <v>53.75614038870289</v>
+        <v>53.75614038870292</v>
       </c>
       <c r="P36" t="n">
-        <v>620.7665395046145</v>
+        <v>785.1735636715779</v>
       </c>
       <c r="Q36" t="n">
-        <v>18.52553693819285</v>
+        <v>149.1715354677861</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>77.23652762883341</v>
+        <v>77.23652762883343</v>
       </c>
       <c r="K37" t="n">
         <v>260.3088847506286</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>417.5552170358097</v>
+        <v>21.86913753315706</v>
       </c>
       <c r="K38" t="n">
-        <v>799.6047257259798</v>
+        <v>799.60472572598</v>
       </c>
       <c r="L38" t="n">
         <v>1034.378067142615</v>
       </c>
       <c r="M38" t="n">
-        <v>1120.539970055218</v>
+        <v>68.67830168199009</v>
       </c>
       <c r="N38" t="n">
-        <v>1093.93870856008</v>
+        <v>1093.938708560081</v>
       </c>
       <c r="O38" t="n">
-        <v>468.5678223543214</v>
+        <v>955.4989978442568</v>
       </c>
       <c r="P38" t="n">
-        <v>49.32354701218549</v>
+        <v>513.1230412539526</v>
       </c>
       <c r="Q38" t="n">
-        <v>29.13278692718114</v>
+        <v>525.9498650713581</v>
       </c>
       <c r="R38" t="n">
-        <v>2.927128489022444</v>
+        <v>2.927128489022458</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>9.936320485540296</v>
+        <v>267.8501203226806</v>
       </c>
       <c r="K39" t="n">
-        <v>29.81119779595362</v>
+        <v>29.81119779595364</v>
       </c>
       <c r="L39" t="n">
-        <v>47.68828177879951</v>
+        <v>47.68828177879954</v>
       </c>
       <c r="M39" t="n">
-        <v>1148.577088415066</v>
+        <v>58.82723924006652</v>
       </c>
       <c r="N39" t="n">
-        <v>467.6969591506501</v>
+        <v>62.74927656916982</v>
       </c>
       <c r="O39" t="n">
-        <v>53.75614038870289</v>
+        <v>53.75614038870292</v>
       </c>
       <c r="P39" t="n">
-        <v>39.97068505412496</v>
+        <v>785.1735636715779</v>
       </c>
       <c r="Q39" t="n">
-        <v>18.52553693819285</v>
+        <v>510.1063902400798</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>77.23652762883341</v>
+        <v>77.23652762883343</v>
       </c>
       <c r="K40" t="n">
         <v>260.3088847506286</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>417.5552170358097</v>
+        <v>21.86913753315706</v>
       </c>
       <c r="K41" t="n">
-        <v>486.1577393772688</v>
+        <v>624.0949790424837</v>
       </c>
       <c r="L41" t="n">
-        <v>57.05082509456157</v>
+        <v>57.05082509456161</v>
       </c>
       <c r="M41" t="n">
-        <v>68.67830168199005</v>
+        <v>68.67830168199009</v>
       </c>
       <c r="N41" t="n">
-        <v>70.5469054360376</v>
+        <v>70.54690543603766</v>
       </c>
       <c r="O41" t="n">
-        <v>64.42657368943259</v>
+        <v>624.0949790424837</v>
       </c>
       <c r="P41" t="n">
         <v>624.0949790424837</v>
       </c>
       <c r="Q41" t="n">
-        <v>525.9498650713581</v>
+        <v>224.0302995557448</v>
       </c>
       <c r="R41" t="n">
         <v>156.7035509918014</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>9.936320485540296</v>
+        <v>9.936320485540307</v>
       </c>
       <c r="K42" t="n">
-        <v>29.81119779595362</v>
+        <v>624.0949790424837</v>
       </c>
       <c r="L42" t="n">
-        <v>47.68828177879951</v>
+        <v>47.68828177879954</v>
       </c>
       <c r="M42" t="n">
-        <v>58.82723924006649</v>
+        <v>58.82723924006652</v>
       </c>
       <c r="N42" t="n">
+        <v>62.74927656916982</v>
+      </c>
+      <c r="O42" t="n">
+        <v>53.75614038870292</v>
+      </c>
+      <c r="P42" t="n">
         <v>624.0949790424837</v>
       </c>
-      <c r="O42" t="n">
-        <v>53.75614038870289</v>
-      </c>
-      <c r="P42" t="n">
-        <v>378.8191556811511</v>
-      </c>
       <c r="Q42" t="n">
-        <v>510.1063902400797</v>
+        <v>334.8149934597839</v>
       </c>
       <c r="R42" t="n">
-        <v>102.922505354253</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>77.23652762883341</v>
+        <v>77.23652762883343</v>
       </c>
       <c r="K43" t="n">
         <v>260.3088847506286</v>
@@ -38022,25 +38022,25 @@
         <v>624.0949790424837</v>
       </c>
       <c r="L44" t="n">
-        <v>57.05082509456157</v>
+        <v>57.05082509456161</v>
       </c>
       <c r="M44" t="n">
-        <v>68.67830168199005</v>
+        <v>68.67830168199009</v>
       </c>
       <c r="N44" t="n">
-        <v>70.5469054360376</v>
+        <v>70.54690543603766</v>
       </c>
       <c r="O44" t="n">
-        <v>80.26575652699621</v>
+        <v>624.0949790424837</v>
       </c>
       <c r="P44" t="n">
-        <v>624.0949790424837</v>
+        <v>80.26575652699644</v>
       </c>
       <c r="Q44" t="n">
         <v>525.9498650713581</v>
       </c>
       <c r="R44" t="n">
-        <v>2.927128489022444</v>
+        <v>2.927128489022458</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>9.936320485540296</v>
+        <v>9.936320485540307</v>
       </c>
       <c r="K45" t="n">
-        <v>448.803582262188</v>
+        <v>624.0949790424837</v>
       </c>
       <c r="L45" t="n">
-        <v>47.68828177879951</v>
+        <v>47.68828177879954</v>
       </c>
       <c r="M45" t="n">
-        <v>58.82723924006649</v>
+        <v>58.82723924006652</v>
       </c>
       <c r="N45" t="n">
-        <v>62.74927656916979</v>
+        <v>62.74927656916982</v>
       </c>
       <c r="O45" t="n">
-        <v>53.75614038870289</v>
+        <v>53.75614038870292</v>
       </c>
       <c r="P45" t="n">
         <v>624.0949790424837</v>
       </c>
       <c r="Q45" t="n">
-        <v>510.1063902400797</v>
+        <v>334.8149934597839</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>77.23652762883341</v>
+        <v>77.23652762883343</v>
       </c>
       <c r="K46" t="n">
         <v>260.3088847506286</v>
